--- a/error_computation/frictionless_sliding_analyt_8/frictionless_convergencestudy.xlsx
+++ b/error_computation/frictionless_sliding_analyt_8/frictionless_convergencestudy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="35">
   <si>
     <t>Database for example "inp_frictionless_sliding_analyt_8"</t>
   </si>
@@ -73,12 +73,6 @@
     <t>Lagrange multipliers</t>
   </si>
   <si>
-    <t>Penalty method</t>
-  </si>
-  <si>
-    <t>Nitsche's method</t>
-  </si>
-  <si>
     <t>Rate 1</t>
   </si>
   <si>
@@ -91,7 +85,40 @@
     <t>Rates traction:</t>
   </si>
   <si>
-    <t>Plots to compare all methods</t>
+    <t>here, penalty parameter chosen arbitrarily and scaled 1/h^2</t>
+  </si>
+  <si>
+    <t>here, penalty parameter chosen such that displacement error is the same in the coarsest mesh and then scaled 1/h^2</t>
+  </si>
+  <si>
+    <t>scale 1/h^2</t>
+  </si>
+  <si>
+    <t>scale 1/h</t>
+  </si>
+  <si>
+    <t>Penalty method (two integrals)</t>
+  </si>
+  <si>
+    <t>Nitsche's method (two integrals)</t>
+  </si>
+  <si>
+    <t>Nitsche's method (one integral)</t>
+  </si>
+  <si>
+    <t>Penalty method (one integral)</t>
+  </si>
+  <si>
+    <t>scale 1/h and choose stabilization parameter automatically</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>scale 1/h^2 and choose stabilization parameter automatically</t>
+  </si>
+  <si>
+    <t>here, penalty parameter chosen such that displacement error is the same in the coarsest mesh with Nitsche and then scaled 1/h^2</t>
   </si>
 </sst>
 </file>
@@ -150,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -160,6 +187,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -205,7 +235,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$C$49:$C$54</c:f>
+              <c:f>'Error norms'!$C$19:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -232,27 +262,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$G$49:$G$54</c:f>
+              <c:f>'Error norms'!$G$19:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.6189999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3343999999999999E-3</c:v>
+                  <c:v>5.2655999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6842000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5947000000000003E-4</c:v>
+                  <c:v>5.0378E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6538999999999999E-4</c:v>
+                  <c:v>2.5033E-4</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>9.4746000000000004E-5</c:v>
+                  <c:v>1.5364999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>2.4355999999999999E-5</c:v>
+                  <c:v>4.9234000000000003E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -263,7 +293,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Error norms'!$W$48</c:f>
+              <c:f>'Error norms'!$W$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -274,7 +304,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$X$48:$X$49</c:f>
+              <c:f>'Error norms'!$X$19:$X$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -289,7 +319,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$Y$48:$Y$49</c:f>
+              <c:f>'Error norms'!$Y$19:$Y$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -308,7 +338,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Error norms'!$W$50</c:f>
+              <c:f>'Error norms'!$W$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -319,7 +349,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$X$50:$X$51</c:f>
+              <c:f>'Error norms'!$X$21:$X$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -334,7 +364,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$Y$50:$Y$51</c:f>
+              <c:f>'Error norms'!$Y$21:$Y$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -348,11 +378,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80429056"/>
-        <c:axId val="80430592"/>
+        <c:axId val="70564864"/>
+        <c:axId val="79512320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80429056"/>
+        <c:axId val="70564864"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -360,12 +390,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80430592"/>
+        <c:crossAx val="79512320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80430592"/>
+        <c:axId val="79512320"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -374,7 +404,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80429056"/>
+        <c:crossAx val="70564864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -387,7 +417,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -407,8 +437,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Energy</a:t>
+              <a:rPr lang="de-DE"/>
+              <a:t>Traction</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -423,11 +453,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>energy</c:v>
+            <c:v>traction</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$C$19:$C$24</c:f>
+              <c:f>'Error norms'!$C$46:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -454,37 +484,127 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$H$19:$H$24</c:f>
+              <c:f>'Error norms'!$I$46:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.33034999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18484999999999999</c:v>
+                  <c:v>0.28539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2996999999999996E-2</c:v>
+                  <c:v>4.7933000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2122999999999998E-2</c:v>
+                  <c:v>2.7829E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6637999999999999E-2</c:v>
+                  <c:v>1.9127000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3352999999999999E-2</c:v>
+                  <c:v>8.0823000000000006E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80752000"/>
-        <c:axId val="80757888"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$W$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$X$50:$X$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$Y$50:$Y$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$W$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$X$52:$X$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$Y$52:$Y$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="80035200"/>
+        <c:axId val="80057472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80752000"/>
+        <c:axId val="80035200"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -492,12 +612,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80757888"/>
+        <c:crossAx val="80057472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80757888"/>
+        <c:axId val="80057472"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -506,7 +626,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80752000"/>
+        <c:crossAx val="80035200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -519,7 +639,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -559,7 +679,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$C$35:$C$40</c:f>
+              <c:f>'Error norms'!$C$46:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -586,37 +706,37 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$H$35:$H$40</c:f>
+              <c:f>'Error norms'!$H$46:$H$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.32755000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18417</c:v>
+                  <c:v>0.32682</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18376000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2849000000000001E-2</c:v>
+                  <c:v>9.2713000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2061999999999999E-2</c:v>
+                  <c:v>6.1998999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6606000000000002E-2</c:v>
+                  <c:v>4.6573000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3347E-2</c:v>
+                  <c:v>2.3345999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80782080"/>
-        <c:axId val="80783616"/>
+        <c:axId val="80089856"/>
+        <c:axId val="80091392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80782080"/>
+        <c:axId val="80089856"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -624,12 +744,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80783616"/>
+        <c:crossAx val="80091392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80783616"/>
+        <c:axId val="80091392"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -638,7 +758,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80782080"/>
+        <c:crossAx val="80089856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -651,7 +771,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -691,7 +811,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$C$7:$C$12</c:f>
+              <c:f>'Error norms'!$C$126:$C$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -718,27 +838,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$G$7:$G$12</c:f>
+              <c:f>'Error norms'!$G$126:$G$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.9265000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4097999999999999E-3</c:v>
+                  <c:v>5.1707999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.652E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5875000000000002E-4</c:v>
+                  <c:v>4.9848000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6039E-4</c:v>
+                  <c:v>2.4874000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>9.0488999999999994E-5</c:v>
+                  <c:v>1.5301E-4</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>2.2722999999999999E-5</c:v>
+                  <c:v>4.9166000000000003E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -749,7 +869,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Error norms'!$W$6</c:f>
+              <c:f>'Error norms'!$W$125</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -760,7 +880,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$X$6:$X$7</c:f>
+              <c:f>'Error norms'!$X$125:$X$126</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -775,7 +895,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$Y$6:$Y$7</c:f>
+              <c:f>'Error norms'!$Y$125:$Y$126</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -794,7 +914,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Error norms'!$W$8</c:f>
+              <c:f>'Error norms'!$W$127</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -805,7 +925,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$X$8:$X$9</c:f>
+              <c:f>'Error norms'!$X$127:$X$128</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -820,7 +940,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$Y$8:$Y$9</c:f>
+              <c:f>'Error norms'!$Y$127:$Y$128</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -834,11 +954,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="81010048"/>
-        <c:axId val="81032320"/>
+        <c:axId val="80117120"/>
+        <c:axId val="80135296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81010048"/>
+        <c:axId val="80117120"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -846,12 +966,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81032320"/>
+        <c:crossAx val="80135296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81032320"/>
+        <c:axId val="80135296"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -860,7 +980,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81010048"/>
+        <c:crossAx val="80117120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -893,8 +1013,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Energy</a:t>
+              <a:rPr lang="de-DE"/>
+              <a:t>Traction</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -909,11 +1029,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>energy</c:v>
+            <c:v>traction</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$C$7:$C$12</c:f>
+              <c:f>'Error norms'!$C$126:$C$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -940,37 +1060,127 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$H$7:$H$12</c:f>
+              <c:f>'Error norms'!$I$126:$I$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.33162999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18514</c:v>
+                  <c:v>0.18007999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3048000000000006E-2</c:v>
+                  <c:v>4.9969E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2141000000000002E-2</c:v>
+                  <c:v>3.3273999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6646E-2</c:v>
+                  <c:v>2.4952999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3354E-2</c:v>
+                  <c:v>1.2484E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="81060992"/>
-        <c:axId val="81062528"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$W$130</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$X$130:$X$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$Y$130:$Y$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$W$132</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$X$132:$X$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$Y$132:$Y$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="80169216"/>
+        <c:axId val="80175104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81060992"/>
+        <c:axId val="80169216"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -978,12 +1188,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81062528"/>
+        <c:crossAx val="80175104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81062528"/>
+        <c:axId val="80175104"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -992,7 +1202,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81060992"/>
+        <c:crossAx val="80169216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1005,13 +1215,130 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>energy</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$126:$C$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$H$126:$H$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32694000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18387000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2749999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2012999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6577E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3338000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="80182656"/>
+        <c:axId val="80200832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="80182656"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80200832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="80200832"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80182656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -1026,7 +1353,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Energy-norm</a:t>
+              <a:t>Displacement</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1041,11 +1368,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Lagrange</c:v>
+            <c:v>displ</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$C$19:$C$24</c:f>
+              <c:f>'Error norms'!$C$46:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1072,27 +1399,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$H$19:$H$24</c:f>
+              <c:f>'Error norms'!$G$46:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.33034999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18484999999999999</c:v>
+                  <c:v>5.4580999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8291E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2996999999999996E-2</c:v>
+                  <c:v>6.4495000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2122999999999998E-2</c:v>
+                  <c:v>3.8554000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6637999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3352999999999999E-2</c:v>
+                  <c:v>2.7746999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>1.3389000000000001E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1102,58 +1429,42 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Penalty</c:v>
+            <c:strRef>
+              <c:f>'Error norms'!$W$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$C$35:$C$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.50619999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27940999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14055000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3892000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0490999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5299999999999998E-2</c:v>
+              <c:f>'Error norms'!$X$45:$X$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$H$35:$H$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.32755000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18417</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.2849000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.2061999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6606000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3347E-2</c:v>
+              <c:f>'Error norms'!$Y$45:$Y$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1163,129 +1474,52 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Nitsche</c:v>
+            <c:strRef>
+              <c:f>'Error norms'!$W$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$C$49:$C$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.50619999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27940999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14055000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3892000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0490999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5299999999999998E-2</c:v>
+              <c:f>'Error norms'!$X$47:$X$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$H$49:$H$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.32862000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18456</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.2962000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.2112000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6634000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3352000000000001E-2</c:v>
+              <c:f>'Error norms'!$Y$47:$Y$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>without IF</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Error norms'!$C$7:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.50619999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27940999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14055000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3892000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0490999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5299999999999998E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Error norms'!$H$7:$H$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.33162999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18514</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.3048000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.2141000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6646E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3354E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="81105664"/>
-        <c:axId val="81107200"/>
+        <c:axId val="80222464"/>
+        <c:axId val="80236544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81105664"/>
+        <c:axId val="80222464"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1293,12 +1527,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81107200"/>
+        <c:crossAx val="80236544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81107200"/>
+        <c:axId val="80236544"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1307,7 +1541,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81105664"/>
+        <c:crossAx val="80222464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1320,13 +1554,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -1360,7 +1594,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$C$49:$C$54</c:f>
+              <c:f>'Error norms'!$C$46:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1387,27 +1621,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$I$49:$I$54</c:f>
+              <c:f>'Error norms'!$I$46:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.17404</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.8719000000000001E-2</c:v>
+                  <c:v>0.28539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9667000000000003E-2</c:v>
+                  <c:v>4.7933000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3154000000000003E-2</c:v>
+                  <c:v>2.7829E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4919E-2</c:v>
+                  <c:v>1.9127000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2482E-2</c:v>
+                  <c:v>8.0823000000000006E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,7 +1652,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Error norms'!$W$53</c:f>
+              <c:f>'Error norms'!$W$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1429,7 +1663,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$X$53:$X$54</c:f>
+              <c:f>'Error norms'!$X$50:$X$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1444,7 +1678,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$Y$53:$Y$54</c:f>
+              <c:f>'Error norms'!$Y$50:$Y$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1463,7 +1697,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Error norms'!$W$55</c:f>
+              <c:f>'Error norms'!$W$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1474,7 +1708,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$X$55:$X$56</c:f>
+              <c:f>'Error norms'!$X$52:$X$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1489,7 +1723,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$Y$55:$Y$56</c:f>
+              <c:f>'Error norms'!$Y$52:$Y$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1503,11 +1737,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80448512"/>
-        <c:axId val="80470784"/>
+        <c:axId val="80274560"/>
+        <c:axId val="80276096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80448512"/>
+        <c:axId val="80274560"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1515,12 +1749,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80470784"/>
+        <c:crossAx val="80276096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80470784"/>
+        <c:axId val="80276096"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1529,7 +1763,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80448512"/>
+        <c:crossAx val="80274560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1542,7 +1776,3095 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Energy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>energy</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$46:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$H$46:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32682</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18376000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2713000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1998999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6573000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3345999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="73472256"/>
+        <c:axId val="73502720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="73472256"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73502720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="73502720"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73472256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Displacement</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>displ</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$143:$C$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$G$143:$G$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.1720999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6509000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9835000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4872000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>1.5300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.9166000000000003E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$W$142</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$X$142:$X$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$Y$142:$Y$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$W$144</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$X$144:$X$145</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$Y$144:$Y$145</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="73524736"/>
+        <c:axId val="73526272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="73524736"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73526272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="73526272"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73524736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Traction</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>traction</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$143:$C$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$I$143:$I$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.16916999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8817000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9417999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3043999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4830000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2455000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$W$147</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$X$147:$X$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$Y$147:$Y$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$W$149</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$X$149:$X$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$Y$149:$Y$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="73585024"/>
+        <c:axId val="73586560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="73585024"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73586560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="73586560"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73585024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Traction</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>traction</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$19:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$I$19:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4970999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.3284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.099299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.856200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.853999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$W$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$X$24:$X$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$Y$24:$Y$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$W$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$X$26:$X$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$Y$26:$Y$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="79534336"/>
+        <c:axId val="79548416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="79534336"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79548416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="79548416"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79534336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>energy</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$143:$C$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$H$143:$H$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32662000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18382999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2743999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2011999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6575999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3338000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="73606656"/>
+        <c:axId val="73608192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="73606656"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73608192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="73608192"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73606656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Displacement</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>displ</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$106:$C$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$G$106:$G$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.4082000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.645E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9640000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4832000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>1.5288000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.9159999999999997E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$W$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$X$105:$X$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$Y$105:$Y$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$W$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$X$107:$X$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$Y$107:$Y$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="73638272"/>
+        <c:axId val="73639808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="73638272"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73639808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="73639808"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73638272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Traction</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>traction</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$106:$C$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$I$106:$I$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.17404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8719000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9667000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3154000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4919E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2482E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$W$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$X$110:$X$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$Y$110:$Y$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$W$112</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$X$112:$X$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$Y$112:$Y$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="73665152"/>
+        <c:axId val="73675136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="73665152"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73675136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="73675136"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73665152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>energy</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$106:$C$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$H$106:$H$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.33384999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2963000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2079000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6602999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3341000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="73707520"/>
+        <c:axId val="73709056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="73707520"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73709056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="73709056"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73707520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Displacement</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>displ</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$89:$C$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$G$89:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.1723000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6521000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9846999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4874000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>1.5301E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.9166000000000003E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$W$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$X$88:$X$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$Y$88:$Y$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$W$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$X$90:$X$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$Y$90:$Y$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="73882240"/>
+        <c:axId val="73896320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="73882240"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73896320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="73896320"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73882240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Traction</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>traction</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$89:$C$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$I$89:$I$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.24939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7717999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6845000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7001000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3010000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$W$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$X$93:$X$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$Y$93:$Y$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$W$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$X$95:$X$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$Y$95:$Y$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="73921664"/>
+        <c:axId val="73923200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="73921664"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73923200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="73923200"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73921664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>energy</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$89:$C$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$H$89:$H$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32684999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18387999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2751E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2014E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6577E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3338000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="73812224"/>
+        <c:axId val="73834496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="73812224"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73834496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="73834496"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73812224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Displacements</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lagrange</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$19:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$G$19:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.2655999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6842000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0378E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5033E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>1.5364999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.9234000000000003E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Penalty (1/h^2)</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$46:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$G$46:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.4580999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8291E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4495000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8554000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7746999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>1.3389000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Nitsche (1/h auto)</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$143:$C$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$G$143:$G$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.1720999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6509000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9835000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4872000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>1.5300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.9166000000000003E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Nitsche (1/h^2 manual)</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$106:$C$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$G$106:$G$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.4082000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.645E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9640000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4832000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>1.5288000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.9159999999999997E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="107213952"/>
+        <c:axId val="107203200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="107213952"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>mesh size h</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107203200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="107203200"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107213952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Energy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lagrange</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$19:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$H$19:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32915</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18454000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2914999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2086000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6618E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3348000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Penalty (1/h^2)</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$46:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$H$46:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32682</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18376000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2713000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1998999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6573000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3345999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Nitsche (1/h auto)</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$143:$C$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$H$143:$H$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32662000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18382999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2743999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2011999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6575999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3338000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Nitsche (1/h^2 manual)</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$106:$C$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$H$106:$H$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.33384999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2963000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2079000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6602999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3341000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="103829504"/>
+        <c:axId val="103880576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="103829504"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>mesh size h</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103880576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="103880576"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103829504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tractions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lagrange</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$19:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$I$19:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.2683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4970999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.3284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.099299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.856200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.853999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Penalty (1/h^2)</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$46:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$I$46:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.28539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12479</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7933000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7829E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9127000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0823000000000006E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Nitsche (1/h auto)</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$143:$C$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$I$143:$I$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.16916999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8817000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9417999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3043999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4830000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2455000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Nitsche (1/h^2 manual)</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$106:$C$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$I$106:$I$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.17404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8719000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9667000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3154000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4919E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2482E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="82055936"/>
+        <c:axId val="82101760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="82055936"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>mesh size h</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82101760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="82101760"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82055936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1582,7 +4904,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$C$19:$C$24</c:f>
+              <c:f>'Error norms'!$C$35:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1609,27 +4931,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$G$19:$G$24</c:f>
+              <c:f>'Error norms'!$G$35:$G$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.5164000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3822999999999999E-3</c:v>
+                  <c:v>7.7958000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1790999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6940999999999997E-4</c:v>
+                  <c:v>1.4561999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6845E-4</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>9.6027999999999996E-5</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>2.4511999999999998E-5</c:v>
+                  <c:v>9.6834000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2964000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7097999999999998E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1640,7 +4962,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Error norms'!$W$19</c:f>
+              <c:f>'Error norms'!$W$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1651,7 +4973,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$X$19:$X$20</c:f>
+              <c:f>'Error norms'!$X$34:$X$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1666,7 +4988,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$Y$19:$Y$20</c:f>
+              <c:f>'Error norms'!$Y$34:$Y$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1685,7 +5007,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Error norms'!$W$21</c:f>
+              <c:f>'Error norms'!$W$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1696,7 +5018,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$X$21:$X$22</c:f>
+              <c:f>'Error norms'!$X$36:$X$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1711,7 +5033,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$Y$21:$Y$22</c:f>
+              <c:f>'Error norms'!$Y$36:$Y$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1725,11 +5047,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80361344"/>
-        <c:axId val="80362880"/>
+        <c:axId val="79434880"/>
+        <c:axId val="79436416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80361344"/>
+        <c:axId val="79434880"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1737,12 +5059,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80362880"/>
+        <c:crossAx val="79436416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80362880"/>
+        <c:axId val="79436416"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1751,7 +5073,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80361344"/>
+        <c:crossAx val="79434880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1764,7 +5086,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1790,6 +5112,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1803,7 +5126,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$C$19:$C$24</c:f>
+              <c:f>'Error norms'!$C$35:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1830,27 +5153,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$I$19:$I$24</c:f>
+              <c:f>'Error norms'!$I$35:$I$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.2683</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.4970999999999997</c:v>
+                  <c:v>0.21057000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7061999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.3284</c:v>
+                  <c:v>3.8649000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.099299999999999</c:v>
+                  <c:v>2.3154999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.856200000000001</c:v>
+                  <c:v>1.6299000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.853999999999999</c:v>
+                  <c:v>7.2699000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1861,7 +5184,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Error norms'!$W$24</c:f>
+              <c:f>'Error norms'!$W$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1872,7 +5195,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$X$24:$X$25</c:f>
+              <c:f>'Error norms'!$X$39:$X$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1887,7 +5210,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$Y$24:$Y$25</c:f>
+              <c:f>'Error norms'!$Y$39:$Y$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1906,7 +5229,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Error norms'!$W$26</c:f>
+              <c:f>'Error norms'!$W$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1917,7 +5240,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$X$26:$X$27</c:f>
+              <c:f>'Error norms'!$X$41:$X$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1932,7 +5255,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$Y$26:$Y$27</c:f>
+              <c:f>'Error norms'!$Y$41:$Y$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1946,11 +5269,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80409344"/>
-        <c:axId val="80410880"/>
+        <c:axId val="79486976"/>
+        <c:axId val="79488512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80409344"/>
+        <c:axId val="79486976"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1958,12 +5281,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80410880"/>
+        <c:crossAx val="79488512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80410880"/>
+        <c:axId val="79488512"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1972,13 +5295,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80409344"/>
+        <c:crossAx val="79486976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1991,6 +5315,270 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Energy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>energy</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$19:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$H$19:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32915</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18454000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2914999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2086000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6618E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3348000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="79805824"/>
+        <c:axId val="79819904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="79805824"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79819904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="79819904"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79805824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Energy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>energy</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$35:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$H$35:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.32530999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18340999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2689999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2043000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6641000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3441E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="79852288"/>
+        <c:axId val="79853824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="79852288"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79853824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="79853824"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79852288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -2024,7 +5612,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$C$35:$C$40</c:f>
+              <c:f>'Error norms'!$C$7:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2051,27 +5639,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$G$35:$G$40</c:f>
+              <c:f>'Error norms'!$G$7:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.8516000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8896999999999998E-3</c:v>
+                  <c:v>4.9265000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4097999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3738999999999999E-3</c:v>
+                  <c:v>3.5875000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3095999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0843999999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.6558000000000001E-4</c:v>
+                  <c:v>1.6039E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>9.0488999999999994E-5</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>2.2722999999999999E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2082,7 +5670,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Error norms'!$W$34</c:f>
+              <c:f>'Error norms'!$W$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2093,7 +5681,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$X$34:$X$35</c:f>
+              <c:f>'Error norms'!$X$6:$X$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2108,7 +5696,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$Y$34:$Y$35</c:f>
+              <c:f>'Error norms'!$Y$6:$Y$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2127,7 +5715,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Error norms'!$W$36</c:f>
+              <c:f>'Error norms'!$W$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2138,7 +5726,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$X$36:$X$37</c:f>
+              <c:f>'Error norms'!$X$8:$X$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2153,7 +5741,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$Y$36:$Y$37</c:f>
+              <c:f>'Error norms'!$Y$8:$Y$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2167,11 +5755,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80625024"/>
-        <c:axId val="80651392"/>
+        <c:axId val="79870976"/>
+        <c:axId val="79880960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80625024"/>
+        <c:axId val="79870976"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2179,12 +5767,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80651392"/>
+        <c:crossAx val="79880960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80651392"/>
+        <c:axId val="79880960"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2193,7 +5781,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80625024"/>
+        <c:crossAx val="79870976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2207,541 +5795,6 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Traction</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>traction</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Error norms'!$C$35:$C$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.50619999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27940999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14055000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3892000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0490999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5299999999999998E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Error norms'!$I$35:$I$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.21057000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.7061999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8649000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3154999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6299000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.2699000000000001E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Error norms'!$W$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rate 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Error norms'!$X$39:$X$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Error norms'!$Y$39:$Y$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Error norms'!$W$41</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rate 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Error norms'!$X$41:$X$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Error norms'!$Y$41:$Y$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="80677120"/>
-        <c:axId val="80683008"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="80677120"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80683008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="80683008"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80677120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Displacements</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Lagrange</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Error norms'!$C$19:$C$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.50619999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27940999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14055000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3892000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0490999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5299999999999998E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Error norms'!$G$19:$G$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.5164000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3822999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6940999999999997E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6845E-4</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>9.6027999999999996E-5</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>2.4511999999999998E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Penalty</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Error norms'!$C$35:$C$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.50619999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27940999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14055000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3892000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0490999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5299999999999998E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Error norms'!$G$35:$G$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>6.8516000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8896999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3738999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3095999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0843999999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.6558000000000001E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Nitsche</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Error norms'!$C$49:$C$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.50619999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27940999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14055000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3892000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0490999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5299999999999998E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Error norms'!$G$49:$G$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.6189999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3343999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5947000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6538999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>9.4746000000000004E-5</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>2.4355999999999999E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>without IF</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Error norms'!$C$7:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.50619999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27940999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14055000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3892000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0490999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5299999999999998E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Error norms'!$G$7:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.9265000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4097999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5875000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6039E-4</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>9.0488999999999994E-5</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>2.2722999999999999E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="80713600"/>
-        <c:axId val="80715136"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="80713600"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80715136"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="80715136"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80713600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2762,7 +5815,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Tractions</a:t>
+              <a:t>Energy</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2777,11 +5830,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Lagrange</c:v>
+            <c:v>energy</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$C$19:$C$24</c:f>
+              <c:f>'Error norms'!$C$7:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2808,204 +5861,37 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$I$19:$I$24</c:f>
+              <c:f>'Error norms'!$H$7:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.2683</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.4970999999999997</c:v>
+                  <c:v>0.33162999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.3284</c:v>
+                  <c:v>9.3048000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.099299999999999</c:v>
+                  <c:v>6.2141000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.856200000000001</c:v>
+                  <c:v>4.6646E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.853999999999999</c:v>
+                  <c:v>2.3354E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Penalty</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Error norms'!$C$35:$C$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.50619999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27940999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14055000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3892000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0490999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5299999999999998E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Error norms'!$I$35:$I$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.21057000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.7061999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8649000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3154999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6299000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.2699000000000001E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Nitsche</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Error norms'!$C$49:$C$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.50619999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27940999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14055000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3892000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0490999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5299999999999998E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Error norms'!$I$49:$I$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.17404</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.8719000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.9667000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3154000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4919E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2482E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Error norms'!$N$73</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rate 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Error norms'!$O$73:$O$74</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Error norms'!$P$73:$P$74</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="80827904"/>
-        <c:axId val="80829440"/>
+        <c:axId val="79925632"/>
+        <c:axId val="79927168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80827904"/>
+        <c:axId val="79925632"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3013,12 +5899,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80829440"/>
+        <c:crossAx val="79927168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80829440"/>
+        <c:axId val="79927168"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3027,7 +5913,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80827904"/>
+        <c:crossAx val="79925632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3040,7 +5926,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3051,6 +5937,21 @@
   <c:lang val="de-DE"/>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Displacement</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
     </c:title>
     <c:plotArea>
@@ -3061,11 +5962,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>energy</c:v>
+            <c:v>displ</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Error norms'!$C$49:$C$54</c:f>
+              <c:f>'Error norms'!$C$46:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3092,37 +5993,127 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Error norms'!$H$49:$H$54</c:f>
+              <c:f>'Error norms'!$G$46:$G$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.32862000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18456</c:v>
+                  <c:v>5.4580999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8291E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2962000000000003E-2</c:v>
+                  <c:v>6.4495000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2112000000000001E-2</c:v>
+                  <c:v>3.8554000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6634000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3352000000000001E-2</c:v>
+                  <c:v>2.7746999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>1.3389000000000001E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80845056"/>
-        <c:axId val="80855040"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$W$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$X$45:$X$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$Y$45:$Y$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$W$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$X$47:$X$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$Y$47:$Y$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="80012032"/>
+        <c:axId val="80013568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80845056"/>
+        <c:axId val="80012032"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3130,12 +6121,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80855040"/>
+        <c:crossAx val="80013568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80855040"/>
+        <c:axId val="80013568"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3144,7 +6135,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80845056"/>
+        <c:crossAx val="80012032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3157,7 +6148,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3165,66 +6156,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>705971</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>425823</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>605118</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -3249,7 +6180,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3279,7 +6210,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3309,7 +6240,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3339,97 +6270,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>291354</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Diagramm 7"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>187698</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>301438</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>73398</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Diagramm 8"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Diagramm 9"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3459,7 +6300,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3489,7 +6330,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3519,7 +6360,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3549,6 +6390,156 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>728382</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>616324</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Diagramm 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>537884</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Diagramm 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Diagramm 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>705971</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Diagramm 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Diagramm 19"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
@@ -3557,20 +6548,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>649941</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Diagramm 14"/>
+        <xdr:cNvPr id="21" name="Diagramm 20"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3580,6 +6571,456 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>728382</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>616324</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Diagramm 24"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>537884</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="Diagramm 25"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="27" name="Diagramm 26"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>705971</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="28" name="Diagramm 27"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="Diagramm 28"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="30" name="Diagramm 29"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>705971</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="34" name="Diagramm 33"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="35" name="Diagramm 34"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="36" name="Diagramm 35"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>705971</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="37" name="Diagramm 36"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="38" name="Diagramm 37"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="39" name="Diagramm 38"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182655</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>46504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>978273</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>124945</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="31" name="Diagramm 30"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>700368</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>126066</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="32" name="Diagramm 31"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>195543</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>126066</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="33" name="Diagramm 32"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3873,10 +7314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:Y166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K176" sqref="K176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3932,7 +7373,7 @@
         <v>10</v>
       </c>
       <c r="W5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -3940,7 +7381,7 @@
         <v>11</v>
       </c>
       <c r="W6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -4001,7 +7442,7 @@
         <v>0.18514</v>
       </c>
       <c r="W8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X8">
         <v>1</v>
@@ -4062,7 +7503,7 @@
         <v>6.2141000000000002E-2</v>
       </c>
       <c r="W10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -4088,7 +7529,7 @@
         <v>4.6646E-2</v>
       </c>
       <c r="W11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X11">
         <v>1</v>
@@ -4128,7 +7569,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="W13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X13">
         <v>1</v>
@@ -4179,7 +7620,7 @@
         <v>11</v>
       </c>
       <c r="W18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -4199,17 +7640,17 @@
         <v>336</v>
       </c>
       <c r="G19">
-        <v>4.5164000000000003E-3</v>
+        <v>5.2655999999999996E-3</v>
       </c>
       <c r="H19">
-        <v>0.33034999999999998</v>
+        <v>0.32915</v>
       </c>
       <c r="I19">
         <v>4.2683</v>
       </c>
       <c r="K19" s="1"/>
       <c r="W19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X19">
         <v>1</v>
@@ -4235,10 +7676,10 @@
         <v>968</v>
       </c>
       <c r="G20">
-        <v>1.3822999999999999E-3</v>
+        <v>1.6842000000000001E-3</v>
       </c>
       <c r="H20">
-        <v>0.18484999999999999</v>
+        <v>0.18454000000000001</v>
       </c>
       <c r="I20">
         <v>7.4970999999999997</v>
@@ -4267,16 +7708,16 @@
         <v>3528</v>
       </c>
       <c r="G21">
-        <v>3.6940999999999997E-4</v>
+        <v>5.0378E-4</v>
       </c>
       <c r="H21">
-        <v>9.2996999999999996E-2</v>
+        <v>9.2914999999999998E-2</v>
       </c>
       <c r="I21">
         <v>15.3284</v>
       </c>
       <c r="W21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X21">
         <v>1</v>
@@ -4302,10 +7743,10 @@
         <v>7688</v>
       </c>
       <c r="G22">
-        <v>1.6845E-4</v>
+        <v>2.5033E-4</v>
       </c>
       <c r="H22">
-        <v>6.2122999999999998E-2</v>
+        <v>6.2086000000000002E-2</v>
       </c>
       <c r="I22">
         <v>23.099299999999999</v>
@@ -4334,16 +7775,16 @@
         <v>13448</v>
       </c>
       <c r="G23" s="3">
-        <v>9.6027999999999996E-5</v>
+        <v>1.5364999999999999E-4</v>
       </c>
       <c r="H23">
-        <v>4.6637999999999999E-2</v>
+        <v>4.6618E-2</v>
       </c>
       <c r="I23">
         <v>30.856200000000001</v>
       </c>
       <c r="W23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -4363,16 +7804,16 @@
         <v>52488</v>
       </c>
       <c r="G24" s="3">
-        <v>2.4511999999999998E-5</v>
+        <v>4.9234000000000003E-5</v>
       </c>
       <c r="H24">
-        <v>2.3352999999999999E-2</v>
+        <v>2.3348000000000001E-2</v>
       </c>
       <c r="I24">
         <v>61.853999999999999</v>
       </c>
       <c r="W24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X24">
         <v>1</v>
@@ -4391,7 +7832,7 @@
     </row>
     <row r="26" spans="1:25">
       <c r="W26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X26">
         <v>1</v>
@@ -4408,9 +7849,14 @@
         <v>1E-4</v>
       </c>
     </row>
+    <row r="32" spans="1:25">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="33" spans="1:25">
       <c r="A33" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>3</v>
@@ -4437,7 +7883,7 @@
         <v>10</v>
       </c>
       <c r="W33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -4445,7 +7891,7 @@
         <v>11</v>
       </c>
       <c r="W34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X34">
         <v>1</v>
@@ -4474,10 +7920,10 @@
         <v>336</v>
       </c>
       <c r="G35">
-        <v>6.8516000000000002E-3</v>
+        <v>7.7958000000000003E-3</v>
       </c>
       <c r="H35">
-        <v>0.32755000000000001</v>
+        <v>0.32530999999999999</v>
       </c>
       <c r="I35">
         <v>0.21057000000000001</v>
@@ -4510,16 +7956,16 @@
         <v>968</v>
       </c>
       <c r="G36">
-        <v>2.8896999999999998E-3</v>
+        <v>3.1790999999999998E-3</v>
       </c>
       <c r="H36">
-        <v>0.18417</v>
+        <v>0.18340999999999999</v>
       </c>
       <c r="I36">
         <v>9.7061999999999996E-2</v>
       </c>
       <c r="W36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X36">
         <v>1</v>
@@ -4549,10 +7995,10 @@
         <v>3528</v>
       </c>
       <c r="G37">
-        <v>1.3738999999999999E-3</v>
+        <v>1.4561999999999999E-3</v>
       </c>
       <c r="H37">
-        <v>9.2849000000000001E-2</v>
+        <v>9.2689999999999995E-2</v>
       </c>
       <c r="I37">
         <v>3.8649000000000003E-2</v>
@@ -4585,17 +8031,17 @@
         <v>7688</v>
       </c>
       <c r="G38">
-        <v>9.3095999999999999E-4</v>
+        <v>9.6834000000000004E-4</v>
       </c>
       <c r="H38">
-        <v>6.2061999999999999E-2</v>
+        <v>6.2043000000000001E-2</v>
       </c>
       <c r="I38">
         <v>2.3154999999999999E-2</v>
       </c>
       <c r="K38" s="3"/>
       <c r="W38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -4619,16 +8065,16 @@
         <v>13448</v>
       </c>
       <c r="G39">
-        <v>7.0843999999999996E-4</v>
+        <v>7.2964000000000004E-4</v>
       </c>
       <c r="H39">
-        <v>4.6606000000000002E-2</v>
+        <v>4.6641000000000002E-2</v>
       </c>
       <c r="I39">
         <v>1.6299000000000001E-2</v>
       </c>
       <c r="W39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X39">
         <v>1</v>
@@ -4658,10 +8104,10 @@
         <v>52488</v>
       </c>
       <c r="G40">
-        <v>3.6558000000000001E-4</v>
+        <v>3.7097999999999998E-4</v>
       </c>
       <c r="H40">
-        <v>2.3347E-2</v>
+        <v>2.3441E-2</v>
       </c>
       <c r="I40">
         <v>7.2699000000000001E-3</v>
@@ -4676,7 +8122,7 @@
     <row r="41" spans="1:25">
       <c r="A41" s="3"/>
       <c r="W41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X41">
         <v>1</v>
@@ -4695,412 +8141,1940 @@
       </c>
     </row>
     <row r="43" spans="1:25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="44" spans="1:25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W44" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="45" spans="1:25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W45" t="s">
+        <v>19</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="46" spans="1:25">
-      <c r="A46" s="3"/>
+      <c r="A46" s="3">
+        <v>90000</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>0.50619999999999998</v>
+      </c>
+      <c r="D46">
+        <v>252</v>
+      </c>
+      <c r="E46">
+        <v>308</v>
+      </c>
+      <c r="F46">
+        <v>336</v>
+      </c>
+      <c r="G46">
+        <v>5.4580999999999996E-3</v>
+      </c>
+      <c r="H46">
+        <v>0.32682</v>
+      </c>
+      <c r="I46">
+        <v>0.28539999999999999</v>
+      </c>
+      <c r="X46">
+        <v>0.01</v>
+      </c>
+      <c r="Y46">
+        <v>1E-4</v>
+      </c>
     </row>
     <row r="47" spans="1:25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3">
+        <f>C46^2/C47^2*A46</f>
+        <v>295394.83708200388</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>0.27940999999999999</v>
+      </c>
+      <c r="D47">
+        <v>820</v>
+      </c>
+      <c r="E47">
+        <v>924</v>
+      </c>
+      <c r="F47">
+        <v>968</v>
+      </c>
+      <c r="G47">
+        <v>1.8291E-3</v>
+      </c>
+      <c r="H47">
+        <v>0.18376000000000001</v>
+      </c>
+      <c r="I47">
+        <v>0.12479</v>
+      </c>
+      <c r="W47" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W47" t="s">
-        <v>23</v>
+      <c r="X47">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <v>0.01</v>
       </c>
     </row>
     <row r="48" spans="1:25">
-      <c r="A48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W48" t="s">
-        <v>21</v>
+      <c r="A48" s="3">
+        <f t="shared" ref="A48:A51" si="1">C47^2/C48^2*A47</f>
+        <v>1167414.5214694366</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48">
+        <v>0.14055000000000001</v>
+      </c>
+      <c r="D48">
+        <v>3240</v>
+      </c>
+      <c r="E48">
+        <v>3444</v>
+      </c>
+      <c r="F48">
+        <v>3528</v>
+      </c>
+      <c r="G48">
+        <v>6.4495000000000004E-4</v>
+      </c>
+      <c r="H48">
+        <v>9.2713000000000004E-2</v>
+      </c>
+      <c r="I48">
+        <v>4.7933000000000003E-2</v>
       </c>
       <c r="X48">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Y48">
-        <v>0.01</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="3">
-        <v>5000</v>
+        <f t="shared" si="1"/>
+        <v>2615951.0363727501</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C49">
-        <v>0.50619999999999998</v>
+        <v>9.3892000000000003E-2</v>
       </c>
       <c r="D49">
-        <v>252</v>
+        <v>7260</v>
       </c>
       <c r="E49">
-        <v>308</v>
+        <v>7564</v>
       </c>
       <c r="F49">
-        <v>336</v>
+        <v>7688</v>
       </c>
       <c r="G49">
-        <v>4.6189999999999998E-3</v>
+        <v>3.8554000000000003E-4</v>
       </c>
       <c r="H49">
-        <v>0.32862000000000002</v>
+        <v>6.1998999999999999E-2</v>
       </c>
       <c r="I49">
-        <v>0.17404</v>
-      </c>
-      <c r="X49">
-        <v>0.01</v>
-      </c>
-      <c r="Y49">
-        <v>1E-4</v>
+        <v>2.7829E-2</v>
+      </c>
+      <c r="K49" s="3"/>
+      <c r="W49" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:25">
       <c r="A50" s="3">
-        <f>C49^2/C50^2*A49</f>
-        <v>16410.824282333549</v>
+        <f t="shared" si="1"/>
+        <v>4641084.2029929627</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C50">
-        <v>0.27940999999999999</v>
+        <v>7.0490999999999998E-2</v>
       </c>
       <c r="D50">
-        <v>820</v>
+        <v>12880</v>
       </c>
       <c r="E50">
-        <v>924</v>
+        <v>13284</v>
       </c>
       <c r="F50">
-        <v>968</v>
+        <v>13448</v>
       </c>
       <c r="G50">
-        <v>1.3343999999999999E-3</v>
+        <v>2.7746999999999998E-4</v>
       </c>
       <c r="H50">
-        <v>0.18456</v>
+        <v>4.6573000000000003E-2</v>
       </c>
       <c r="I50">
-        <v>9.8719000000000001E-2</v>
+        <v>1.9127000000000002E-2</v>
       </c>
       <c r="W50" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="X50">
         <v>1</v>
       </c>
       <c r="Y50">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="3">
-        <f t="shared" ref="A51:A54" si="1">C50^2/C51^2*A50</f>
+        <f t="shared" si="1"/>
+        <v>18507057.756662842</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="D51">
+        <v>51360</v>
+      </c>
+      <c r="E51">
+        <v>52164</v>
+      </c>
+      <c r="F51">
+        <v>52488</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1.3389000000000001E-4</v>
+      </c>
+      <c r="H51">
+        <v>2.3345999999999999E-2</v>
+      </c>
+      <c r="I51">
+        <v>8.0823000000000006E-3</v>
+      </c>
+      <c r="X51">
+        <v>0.01</v>
+      </c>
+      <c r="Y51">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" s="3"/>
+      <c r="W52" t="s">
+        <v>20</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" s="3"/>
+      <c r="X53">
+        <v>0.1</v>
+      </c>
+      <c r="Y53">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W59" t="s">
+        <v>19</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
+      </c>
+      <c r="Y59">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60" s="3">
+        <v>30000</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>0.50619999999999998</v>
+      </c>
+      <c r="D60">
+        <v>252</v>
+      </c>
+      <c r="E60">
+        <v>308</v>
+      </c>
+      <c r="F60">
+        <v>336</v>
+      </c>
+      <c r="G60">
+        <v>4.6292E-3</v>
+      </c>
+      <c r="H60">
+        <v>0.32912999999999998</v>
+      </c>
+      <c r="I60">
+        <v>0.63873999999999997</v>
+      </c>
+      <c r="X60">
+        <v>0.01</v>
+      </c>
+      <c r="Y60">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61" s="3">
+        <f>C60^2/C61^2*A60</f>
+        <v>98464.94569400129</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61">
+        <v>0.27940999999999999</v>
+      </c>
+      <c r="D61">
+        <v>820</v>
+      </c>
+      <c r="E61">
+        <v>924</v>
+      </c>
+      <c r="F61">
+        <v>968</v>
+      </c>
+      <c r="G61">
+        <v>1.3668E-3</v>
+      </c>
+      <c r="H61">
+        <v>0.18464</v>
+      </c>
+      <c r="I61">
+        <v>0.79430999999999996</v>
+      </c>
+      <c r="W61" t="s">
+        <v>20</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
+      </c>
+      <c r="Y61">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="A62" s="3">
+        <f t="shared" ref="A62:A65" si="2">C61^2/C62^2*A61</f>
+        <v>389138.17382314551</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62">
+        <v>0.14055000000000001</v>
+      </c>
+      <c r="D62">
+        <v>3240</v>
+      </c>
+      <c r="E62">
+        <v>3444</v>
+      </c>
+      <c r="F62">
+        <v>3528</v>
+      </c>
+      <c r="X62">
+        <v>0.1</v>
+      </c>
+      <c r="Y62">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
+      <c r="A63" s="3">
+        <f t="shared" si="2"/>
+        <v>871983.67879091669</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63">
+        <v>9.3892000000000003E-2</v>
+      </c>
+      <c r="D63">
+        <v>7260</v>
+      </c>
+      <c r="E63">
+        <v>7564</v>
+      </c>
+      <c r="F63">
+        <v>7688</v>
+      </c>
+      <c r="K63" s="3"/>
+      <c r="W63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
+      <c r="A64" s="3">
+        <f t="shared" si="2"/>
+        <v>1547028.0676643208</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64">
+        <v>7.0490999999999998E-2</v>
+      </c>
+      <c r="D64">
+        <v>12880</v>
+      </c>
+      <c r="E64">
+        <v>13284</v>
+      </c>
+      <c r="F64">
+        <v>13448</v>
+      </c>
+      <c r="W64" t="s">
+        <v>19</v>
+      </c>
+      <c r="X64">
+        <v>1</v>
+      </c>
+      <c r="Y64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
+      <c r="A65" s="3">
+        <f t="shared" si="2"/>
+        <v>6169019.2522209464</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="D65">
+        <v>51360</v>
+      </c>
+      <c r="E65">
+        <v>52164</v>
+      </c>
+      <c r="F65">
+        <v>52488</v>
+      </c>
+      <c r="X65">
+        <v>0.01</v>
+      </c>
+      <c r="Y65">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
+      <c r="A66" s="3"/>
+      <c r="W66" t="s">
+        <v>20</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
+      <c r="A67" s="3"/>
+      <c r="X67">
+        <v>0.1</v>
+      </c>
+      <c r="Y67">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:25">
+      <c r="B69"/>
+    </row>
+    <row r="70" spans="1:25">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:25">
+      <c r="B71"/>
+    </row>
+    <row r="72" spans="1:25">
+      <c r="B72"/>
+    </row>
+    <row r="73" spans="1:25">
+      <c r="B73"/>
+    </row>
+    <row r="74" spans="1:25">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" spans="1:25">
+      <c r="A75" s="3"/>
+    </row>
+    <row r="76" spans="1:25">
+      <c r="A76" s="3"/>
+    </row>
+    <row r="77" spans="1:25">
+      <c r="A77" s="3"/>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:25">
+      <c r="A78" s="3"/>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="80" spans="1:25">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:25">
+      <c r="A81" s="3"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="1:25">
+      <c r="A82" s="3"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="1:25">
+      <c r="A83" s="3"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="85" spans="1:25">
+      <c r="A85" s="3"/>
+    </row>
+    <row r="86" spans="1:25">
+      <c r="A86" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
+      <c r="A87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25">
+      <c r="A88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W88" t="s">
+        <v>19</v>
+      </c>
+      <c r="X88">
+        <v>1</v>
+      </c>
+      <c r="Y88">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25">
+      <c r="A89" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>0.50619999999999998</v>
+      </c>
+      <c r="D89">
+        <v>252</v>
+      </c>
+      <c r="E89">
+        <v>308</v>
+      </c>
+      <c r="F89">
+        <v>336</v>
+      </c>
+      <c r="G89">
+        <v>5.1723000000000003E-3</v>
+      </c>
+      <c r="H89">
+        <v>0.32684999999999997</v>
+      </c>
+      <c r="I89">
+        <v>0.24939</v>
+      </c>
+      <c r="X89">
+        <v>0.01</v>
+      </c>
+      <c r="Y89">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25">
+      <c r="A90" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90">
+        <v>0.27940999999999999</v>
+      </c>
+      <c r="D90">
+        <v>820</v>
+      </c>
+      <c r="E90">
+        <v>924</v>
+      </c>
+      <c r="F90">
+        <v>968</v>
+      </c>
+      <c r="G90">
+        <v>1.6521000000000001E-3</v>
+      </c>
+      <c r="H90">
+        <v>0.18387999999999999</v>
+      </c>
+      <c r="I90">
+        <v>0.12909999999999999</v>
+      </c>
+      <c r="W90" t="s">
+        <v>20</v>
+      </c>
+      <c r="X90">
+        <v>1</v>
+      </c>
+      <c r="Y90">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25">
+      <c r="A91" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91">
+        <v>0.14055000000000001</v>
+      </c>
+      <c r="D91">
+        <v>3240</v>
+      </c>
+      <c r="E91">
+        <v>3444</v>
+      </c>
+      <c r="F91">
+        <v>3528</v>
+      </c>
+      <c r="G91">
+        <v>4.9846999999999999E-4</v>
+      </c>
+      <c r="H91">
+        <v>9.2751E-2</v>
+      </c>
+      <c r="I91">
+        <v>5.7717999999999998E-2</v>
+      </c>
+      <c r="X91">
+        <v>0.1</v>
+      </c>
+      <c r="Y91">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25">
+      <c r="A92" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92">
+        <v>9.3892000000000003E-2</v>
+      </c>
+      <c r="D92">
+        <v>7260</v>
+      </c>
+      <c r="E92">
+        <v>7564</v>
+      </c>
+      <c r="F92">
+        <v>7688</v>
+      </c>
+      <c r="G92">
+        <v>2.4874000000000001E-4</v>
+      </c>
+      <c r="H92">
+        <v>6.2014E-2</v>
+      </c>
+      <c r="I92">
+        <v>3.6845000000000003E-2</v>
+      </c>
+      <c r="W92" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25">
+      <c r="A93" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93">
+        <v>7.0490999999999998E-2</v>
+      </c>
+      <c r="D93">
+        <v>12880</v>
+      </c>
+      <c r="E93">
+        <v>13284</v>
+      </c>
+      <c r="F93">
+        <v>13448</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1.5301E-4</v>
+      </c>
+      <c r="H93">
+        <v>4.6577E-2</v>
+      </c>
+      <c r="I93">
+        <v>2.7001000000000001E-2</v>
+      </c>
+      <c r="W93" t="s">
+        <v>19</v>
+      </c>
+      <c r="X93">
+        <v>1</v>
+      </c>
+      <c r="Y93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25">
+      <c r="A94" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="D94">
+        <v>51360</v>
+      </c>
+      <c r="E94">
+        <v>52164</v>
+      </c>
+      <c r="F94">
+        <v>52488</v>
+      </c>
+      <c r="G94" s="3">
+        <v>4.9166000000000003E-5</v>
+      </c>
+      <c r="H94">
+        <v>2.3338000000000001E-2</v>
+      </c>
+      <c r="I94">
+        <v>1.3010000000000001E-2</v>
+      </c>
+      <c r="X94">
+        <v>0.01</v>
+      </c>
+      <c r="Y94">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
+      <c r="W95" t="s">
+        <v>20</v>
+      </c>
+      <c r="X95">
+        <v>1</v>
+      </c>
+      <c r="Y95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
+      <c r="A96" s="1"/>
+      <c r="X96">
+        <v>0.1</v>
+      </c>
+      <c r="Y96">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25">
+      <c r="A97" s="3"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="1:25">
+      <c r="A98" s="3"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="1:25">
+      <c r="A99" s="3"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="102" spans="1:25">
+      <c r="A102" s="3"/>
+    </row>
+    <row r="103" spans="1:25">
+      <c r="A103" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25">
+      <c r="A104" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25">
+      <c r="A105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W105" t="s">
+        <v>19</v>
+      </c>
+      <c r="X105">
+        <v>1</v>
+      </c>
+      <c r="Y105">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25">
+      <c r="A106" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106">
+        <v>0.50619999999999998</v>
+      </c>
+      <c r="D106">
+        <v>252</v>
+      </c>
+      <c r="E106">
+        <v>308</v>
+      </c>
+      <c r="F106">
+        <v>336</v>
+      </c>
+      <c r="G106">
+        <v>5.4082000000000002E-3</v>
+      </c>
+      <c r="H106">
+        <v>0.33384999999999998</v>
+      </c>
+      <c r="I106">
+        <v>0.17404</v>
+      </c>
+      <c r="X106">
+        <v>0.01</v>
+      </c>
+      <c r="Y106">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25">
+      <c r="A107" s="3">
+        <f>C106^2/C107^2*A106</f>
+        <v>16410.824282333549</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107">
+        <v>0.27940999999999999</v>
+      </c>
+      <c r="D107">
+        <v>820</v>
+      </c>
+      <c r="E107">
+        <v>924</v>
+      </c>
+      <c r="F107">
+        <v>968</v>
+      </c>
+      <c r="G107">
+        <v>1.645E-3</v>
+      </c>
+      <c r="H107">
+        <v>0.18567</v>
+      </c>
+      <c r="I107">
+        <v>9.8719000000000001E-2</v>
+      </c>
+      <c r="W107" t="s">
+        <v>20</v>
+      </c>
+      <c r="X107">
+        <v>1</v>
+      </c>
+      <c r="Y107">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25">
+      <c r="A108" s="3">
+        <f t="shared" ref="A108:A111" si="3">C107^2/C108^2*A107</f>
         <v>64856.36230385759</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B108" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C51">
+      <c r="C108">
         <v>0.14055000000000001</v>
       </c>
-      <c r="D51">
+      <c r="D108">
         <v>3240</v>
       </c>
-      <c r="E51">
+      <c r="E108">
         <v>3444</v>
       </c>
-      <c r="F51">
+      <c r="F108">
         <v>3528</v>
       </c>
-      <c r="G51">
-        <v>3.5947000000000003E-4</v>
-      </c>
-      <c r="H51">
-        <v>9.2962000000000003E-2</v>
-      </c>
-      <c r="I51">
+      <c r="G108">
+        <v>4.9640000000000003E-4</v>
+      </c>
+      <c r="H108">
+        <v>9.2963000000000004E-2</v>
+      </c>
+      <c r="I108">
         <v>4.9667000000000003E-2</v>
       </c>
-      <c r="X51">
+      <c r="X108">
         <v>0.1</v>
       </c>
-      <c r="Y51">
+      <c r="Y108">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
-      <c r="A52" s="3">
-        <f t="shared" si="1"/>
+    <row r="109" spans="1:25">
+      <c r="A109" s="3">
+        <f t="shared" si="3"/>
         <v>145330.61313181944</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B109" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C52">
+      <c r="C109">
         <v>9.3892000000000003E-2</v>
       </c>
-      <c r="D52">
+      <c r="D109">
         <v>7260</v>
       </c>
-      <c r="E52">
+      <c r="E109">
         <v>7564</v>
       </c>
-      <c r="F52">
+      <c r="F109">
         <v>7688</v>
       </c>
-      <c r="G52">
-        <v>1.6538999999999999E-4</v>
-      </c>
-      <c r="H52">
-        <v>6.2112000000000001E-2</v>
-      </c>
-      <c r="I52">
+      <c r="G109">
+        <v>2.4832000000000001E-4</v>
+      </c>
+      <c r="H109">
+        <v>6.2079000000000002E-2</v>
+      </c>
+      <c r="I109">
         <v>3.3154000000000003E-2</v>
       </c>
-      <c r="W52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25">
-      <c r="A53" s="3">
-        <f t="shared" si="1"/>
+      <c r="W109" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25">
+      <c r="A110" s="3">
+        <f t="shared" si="3"/>
         <v>257838.01127738677</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B110" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C53">
+      <c r="C110">
         <v>7.0490999999999998E-2</v>
       </c>
-      <c r="D53">
+      <c r="D110">
         <v>12880</v>
       </c>
-      <c r="E53">
+      <c r="E110">
         <v>13284</v>
       </c>
-      <c r="F53">
+      <c r="F110">
         <v>13448</v>
       </c>
-      <c r="G53" s="3">
-        <v>9.4746000000000004E-5</v>
-      </c>
-      <c r="H53">
-        <v>4.6634000000000002E-2</v>
-      </c>
-      <c r="I53">
+      <c r="G110" s="3">
+        <v>1.5288000000000001E-4</v>
+      </c>
+      <c r="H110">
+        <v>4.6602999999999999E-2</v>
+      </c>
+      <c r="I110">
         <v>2.4919E-2</v>
       </c>
-      <c r="W53" t="s">
+      <c r="W110" t="s">
+        <v>19</v>
+      </c>
+      <c r="X110">
+        <v>1</v>
+      </c>
+      <c r="Y110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25">
+      <c r="A111" s="3">
+        <f t="shared" si="3"/>
+        <v>1028169.8753701576</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="D111">
+        <v>51360</v>
+      </c>
+      <c r="E111">
+        <v>52164</v>
+      </c>
+      <c r="F111">
+        <v>52488</v>
+      </c>
+      <c r="G111" s="3">
+        <v>4.9159999999999997E-5</v>
+      </c>
+      <c r="H111">
+        <v>2.3341000000000001E-2</v>
+      </c>
+      <c r="I111">
+        <v>1.2482E-2</v>
+      </c>
+      <c r="X111">
+        <v>0.01</v>
+      </c>
+      <c r="Y111">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25">
+      <c r="W112" t="s">
+        <v>20</v>
+      </c>
+      <c r="X112">
+        <v>1</v>
+      </c>
+      <c r="Y112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25">
+      <c r="A113" s="1"/>
+      <c r="X113">
+        <v>0.1</v>
+      </c>
+      <c r="Y113">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25">
+      <c r="A114" s="3"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" spans="1:25">
+      <c r="A115" s="3"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="1:25">
+      <c r="A116" s="3"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="123" spans="1:25">
+      <c r="A123" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25">
+      <c r="A124" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W124" t="s">
         <v>21</v>
       </c>
-      <c r="X53">
+    </row>
+    <row r="125" spans="1:25">
+      <c r="A125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W125" t="s">
+        <v>19</v>
+      </c>
+      <c r="X125">
         <v>1</v>
       </c>
-      <c r="Y53">
+      <c r="Y125">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25">
+      <c r="A126" s="3">
+        <v>5000</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126">
+        <v>0.50619999999999998</v>
+      </c>
+      <c r="D126">
+        <v>252</v>
+      </c>
+      <c r="E126">
+        <v>308</v>
+      </c>
+      <c r="F126">
+        <v>336</v>
+      </c>
+      <c r="G126">
+        <v>5.1707999999999997E-3</v>
+      </c>
+      <c r="H126">
+        <v>0.32694000000000001</v>
+      </c>
+      <c r="I126">
+        <v>0.18007999999999999</v>
+      </c>
+      <c r="X126">
+        <v>0.01</v>
+      </c>
+      <c r="Y126">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25">
+      <c r="A127" s="3">
+        <f>C126/C127*A126</f>
+        <v>9058.3730002505272</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127">
+        <v>0.27940999999999999</v>
+      </c>
+      <c r="D127">
+        <v>820</v>
+      </c>
+      <c r="E127">
+        <v>924</v>
+      </c>
+      <c r="F127">
+        <v>968</v>
+      </c>
+      <c r="G127">
+        <v>1.652E-3</v>
+      </c>
+      <c r="H127">
+        <v>0.18387000000000001</v>
+      </c>
+      <c r="I127">
+        <v>0.1014</v>
+      </c>
+      <c r="W127" t="s">
+        <v>20</v>
+      </c>
+      <c r="X127">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:25">
-      <c r="A54" s="3">
-        <f t="shared" si="1"/>
-        <v>1028169.8753701576</v>
-      </c>
-      <c r="B54" s="5" t="s">
+      <c r="Y127">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25">
+      <c r="A128" s="3">
+        <f t="shared" ref="A128:A131" si="4">C127/C128*A127</f>
+        <v>18007.826396300246</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <v>0.14055000000000001</v>
+      </c>
+      <c r="D128">
+        <v>3240</v>
+      </c>
+      <c r="E128">
+        <v>3444</v>
+      </c>
+      <c r="F128">
+        <v>3528</v>
+      </c>
+      <c r="G128">
+        <v>4.9848000000000004E-4</v>
+      </c>
+      <c r="H128">
+        <v>9.2749999999999999E-2</v>
+      </c>
+      <c r="I128">
+        <v>4.9969E-2</v>
+      </c>
+      <c r="X128">
+        <v>0.1</v>
+      </c>
+      <c r="Y128">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25">
+      <c r="A129" s="3">
+        <f t="shared" si="4"/>
+        <v>26956.503216461464</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129">
+        <v>9.3892000000000003E-2</v>
+      </c>
+      <c r="D129">
+        <v>7260</v>
+      </c>
+      <c r="E129">
+        <v>7564</v>
+      </c>
+      <c r="F129">
+        <v>7688</v>
+      </c>
+      <c r="G129">
+        <v>2.4874000000000001E-4</v>
+      </c>
+      <c r="H129">
+        <v>6.2012999999999999E-2</v>
+      </c>
+      <c r="I129">
+        <v>3.3273999999999998E-2</v>
+      </c>
+      <c r="W129" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25">
+      <c r="A130" s="3">
+        <f t="shared" si="4"/>
+        <v>35905.292874267638</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130">
+        <v>7.0490999999999998E-2</v>
+      </c>
+      <c r="D130">
+        <v>12880</v>
+      </c>
+      <c r="E130">
+        <v>13284</v>
+      </c>
+      <c r="F130">
+        <v>13448</v>
+      </c>
+      <c r="G130" s="3">
+        <v>1.5301E-4</v>
+      </c>
+      <c r="H130">
+        <v>4.6577E-2</v>
+      </c>
+      <c r="I130">
+        <v>2.4952999999999999E-2</v>
+      </c>
+      <c r="W130" t="s">
+        <v>19</v>
+      </c>
+      <c r="X130">
+        <v>1</v>
+      </c>
+      <c r="Y130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25">
+      <c r="A131" s="3">
+        <f t="shared" si="4"/>
+        <v>71699.716713881018</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C54">
+      <c r="C131">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="D54">
+      <c r="D131">
         <v>51360</v>
       </c>
-      <c r="E54">
+      <c r="E131">
         <v>52164</v>
       </c>
-      <c r="F54">
+      <c r="F131">
         <v>52488</v>
       </c>
-      <c r="G54" s="3">
-        <v>2.4355999999999999E-5</v>
-      </c>
-      <c r="H54">
-        <v>2.3352000000000001E-2</v>
-      </c>
-      <c r="I54">
-        <v>1.2482E-2</v>
-      </c>
-      <c r="X54">
+      <c r="G131" s="3">
+        <v>4.9166000000000003E-5</v>
+      </c>
+      <c r="H131">
+        <v>2.3338000000000001E-2</v>
+      </c>
+      <c r="I131">
+        <v>1.2484E-2</v>
+      </c>
+      <c r="X131">
         <v>0.01</v>
       </c>
-      <c r="Y54">
+      <c r="Y131">
         <v>0.01</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
-      <c r="W55" t="s">
+    <row r="132" spans="1:25">
+      <c r="W132" t="s">
+        <v>20</v>
+      </c>
+      <c r="X132">
+        <v>1</v>
+      </c>
+      <c r="Y132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25">
+      <c r="A133" s="1"/>
+      <c r="X133">
+        <v>0.1</v>
+      </c>
+      <c r="Y133">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25">
+      <c r="A134" s="3"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+    </row>
+    <row r="135" spans="1:25">
+      <c r="A135" s="3"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+    </row>
+    <row r="136" spans="1:25">
+      <c r="A136" s="3"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+    </row>
+    <row r="140" spans="1:25">
+      <c r="A140" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25">
+      <c r="A141" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W141" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25">
+      <c r="A142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W142" t="s">
+        <v>19</v>
+      </c>
+      <c r="X142">
+        <v>1</v>
+      </c>
+      <c r="Y142">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25">
+      <c r="A143" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143">
+        <v>0.50619999999999998</v>
+      </c>
+      <c r="D143">
+        <v>252</v>
+      </c>
+      <c r="E143">
+        <v>308</v>
+      </c>
+      <c r="F143">
+        <v>336</v>
+      </c>
+      <c r="G143">
+        <v>5.1720999999999998E-3</v>
+      </c>
+      <c r="H143">
+        <v>0.32662000000000002</v>
+      </c>
+      <c r="I143">
+        <v>0.16916999999999999</v>
+      </c>
+      <c r="X143">
+        <v>0.01</v>
+      </c>
+      <c r="Y143">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25">
+      <c r="A144" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144">
+        <v>0.27940999999999999</v>
+      </c>
+      <c r="D144">
+        <v>820</v>
+      </c>
+      <c r="E144">
+        <v>924</v>
+      </c>
+      <c r="F144">
+        <v>968</v>
+      </c>
+      <c r="G144">
+        <v>1.6509000000000001E-3</v>
+      </c>
+      <c r="H144">
+        <v>0.18382999999999999</v>
+      </c>
+      <c r="I144">
+        <v>9.8817000000000002E-2</v>
+      </c>
+      <c r="W144" t="s">
+        <v>20</v>
+      </c>
+      <c r="X144">
+        <v>1</v>
+      </c>
+      <c r="Y144">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25">
+      <c r="A145" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145">
+        <v>0.14055000000000001</v>
+      </c>
+      <c r="D145">
+        <v>3240</v>
+      </c>
+      <c r="E145">
+        <v>3444</v>
+      </c>
+      <c r="F145">
+        <v>3528</v>
+      </c>
+      <c r="G145">
+        <v>4.9835000000000005E-4</v>
+      </c>
+      <c r="H145">
+        <v>9.2743999999999993E-2</v>
+      </c>
+      <c r="I145">
+        <v>4.9417999999999997E-2</v>
+      </c>
+      <c r="X145">
+        <v>0.1</v>
+      </c>
+      <c r="Y145">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25">
+      <c r="A146" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146">
+        <v>9.3892000000000003E-2</v>
+      </c>
+      <c r="D146">
+        <v>7260</v>
+      </c>
+      <c r="E146">
+        <v>7564</v>
+      </c>
+      <c r="F146">
+        <v>7688</v>
+      </c>
+      <c r="G146">
+        <v>2.4872000000000002E-4</v>
+      </c>
+      <c r="H146">
+        <v>6.2011999999999998E-2</v>
+      </c>
+      <c r="I146">
+        <v>3.3043999999999997E-2</v>
+      </c>
+      <c r="W146" t="s">
         <v>22</v>
       </c>
-      <c r="X55">
+    </row>
+    <row r="147" spans="1:25">
+      <c r="A147" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C147">
+        <v>7.0490999999999998E-2</v>
+      </c>
+      <c r="D147">
+        <v>12880</v>
+      </c>
+      <c r="E147">
+        <v>13284</v>
+      </c>
+      <c r="F147">
+        <v>13448</v>
+      </c>
+      <c r="G147" s="3">
+        <v>1.5300000000000001E-4</v>
+      </c>
+      <c r="H147">
+        <v>4.6575999999999999E-2</v>
+      </c>
+      <c r="I147">
+        <v>2.4830000000000001E-2</v>
+      </c>
+      <c r="W147" t="s">
+        <v>19</v>
+      </c>
+      <c r="X147">
         <v>1</v>
       </c>
-      <c r="Y55">
+      <c r="Y147">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
-      <c r="A56" s="1"/>
-      <c r="X56">
+    <row r="148" spans="1:25">
+      <c r="A148" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C148">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="D148">
+        <v>51360</v>
+      </c>
+      <c r="E148">
+        <v>52164</v>
+      </c>
+      <c r="F148">
+        <v>52488</v>
+      </c>
+      <c r="G148" s="3">
+        <v>4.9166000000000003E-5</v>
+      </c>
+      <c r="H148">
+        <v>2.3338000000000001E-2</v>
+      </c>
+      <c r="I148">
+        <v>1.2455000000000001E-2</v>
+      </c>
+      <c r="X148">
+        <v>0.01</v>
+      </c>
+      <c r="Y148">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25">
+      <c r="W149" t="s">
+        <v>20</v>
+      </c>
+      <c r="X149">
+        <v>1</v>
+      </c>
+      <c r="Y149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25">
+      <c r="A150" s="1"/>
+      <c r="X150">
         <v>0.1</v>
       </c>
-      <c r="Y56">
+      <c r="Y150">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
-      <c r="A57" s="3"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:25">
-      <c r="A58" s="3"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:25">
-      <c r="A59" s="3"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="64" spans="1:25">
-      <c r="A64" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
-      <c r="A67" s="5"/>
-      <c r="B67"/>
-      <c r="N67" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
-      <c r="N68" t="s">
+    <row r="151" spans="1:25">
+      <c r="A151" s="3"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+    </row>
+    <row r="152" spans="1:25">
+      <c r="A152" s="3"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+    </row>
+    <row r="153" spans="1:25">
+      <c r="A153" s="3"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+    </row>
+    <row r="157" spans="1:25">
+      <c r="A157" s="5"/>
+      <c r="B157"/>
+      <c r="N157" t="s">
         <v>21</v>
       </c>
-      <c r="O68">
+    </row>
+    <row r="158" spans="1:25">
+      <c r="N158" t="s">
+        <v>19</v>
+      </c>
+      <c r="O158">
         <v>1</v>
       </c>
-      <c r="P68">
+      <c r="P158">
         <v>0.01</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
-      <c r="O69">
+    <row r="159" spans="1:25">
+      <c r="O159">
         <v>0.01</v>
       </c>
-      <c r="P69">
+      <c r="P159">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
-      <c r="N70" t="s">
+    <row r="160" spans="1:25">
+      <c r="N160" t="s">
+        <v>20</v>
+      </c>
+      <c r="O160">
+        <v>1</v>
+      </c>
+      <c r="P160">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="161" spans="14:16">
+      <c r="O161">
+        <v>0.1</v>
+      </c>
+      <c r="P161">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="162" spans="14:16">
+      <c r="N162" t="s">
         <v>22</v>
       </c>
-      <c r="O70">
+    </row>
+    <row r="163" spans="14:16">
+      <c r="N163" t="s">
+        <v>19</v>
+      </c>
+      <c r="O163">
         <v>1</v>
       </c>
-      <c r="P70">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="O71">
+      <c r="P163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="14:16">
+      <c r="O164">
         <v>0.1</v>
       </c>
-      <c r="P71">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
-      <c r="N72" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
-      <c r="N73" t="s">
-        <v>21</v>
-      </c>
-      <c r="O73">
+      <c r="P164">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="165" spans="14:16">
+      <c r="N165" t="s">
+        <v>20</v>
+      </c>
+      <c r="O165">
         <v>1</v>
       </c>
-      <c r="P73">
+      <c r="P165">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
-      <c r="O74">
+    <row r="166" spans="14:16">
+      <c r="O166">
         <v>0.1</v>
       </c>
-      <c r="P74">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
-      <c r="N75" t="s">
-        <v>22</v>
-      </c>
-      <c r="O75">
-        <v>1</v>
-      </c>
-      <c r="P75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
-      <c r="O76">
-        <v>0.1</v>
-      </c>
-      <c r="P76">
+      <c r="P166">
         <v>1E-4</v>
       </c>
     </row>

--- a/error_computation/frictionless_sliding_analyt_8/frictionless_convergencestudy.xlsx
+++ b/error_computation/frictionless_sliding_analyt_8/frictionless_convergencestudy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="38">
   <si>
     <t>Database for example "inp_frictionless_sliding_analyt_8"</t>
   </si>
@@ -120,6 +120,15 @@
   <si>
     <t>here, penalty parameter chosen such that displacement error is the same in the coarsest mesh with Nitsche and then scaled 1/h^2</t>
   </si>
+  <si>
+    <t>unstructured meshing</t>
+  </si>
+  <si>
+    <t>inp_frictionless_sliding_analyt_8_420</t>
+  </si>
+  <si>
+    <t>inp_frictionless_sliding_analyt_8_14766</t>
+  </si>
 </sst>
 </file>
 
@@ -221,7 +230,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -378,11 +386,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="70564864"/>
-        <c:axId val="79512320"/>
+        <c:axId val="92542080"/>
+        <c:axId val="92544384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70564864"/>
+        <c:axId val="92542080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -390,12 +398,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79512320"/>
+        <c:crossAx val="92544384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79512320"/>
+        <c:axId val="92544384"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -404,14 +412,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70564864"/>
+        <c:crossAx val="92542080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -443,7 +450,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -600,11 +606,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80035200"/>
-        <c:axId val="80057472"/>
+        <c:axId val="108472192"/>
+        <c:axId val="108473728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80035200"/>
+        <c:axId val="108472192"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -612,12 +618,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80057472"/>
+        <c:crossAx val="108473728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80057472"/>
+        <c:axId val="108473728"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -626,14 +632,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80035200"/>
+        <c:crossAx val="108472192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -665,7 +670,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -732,11 +736,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80089856"/>
-        <c:axId val="80091392"/>
+        <c:axId val="108493824"/>
+        <c:axId val="108507904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80089856"/>
+        <c:axId val="108493824"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -744,12 +748,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80091392"/>
+        <c:crossAx val="108507904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80091392"/>
+        <c:axId val="108507904"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -758,14 +762,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80089856"/>
+        <c:crossAx val="108493824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -954,11 +957,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80117120"/>
-        <c:axId val="80135296"/>
+        <c:axId val="108668800"/>
+        <c:axId val="108670336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80117120"/>
+        <c:axId val="108668800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -966,12 +969,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80135296"/>
+        <c:crossAx val="108670336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80135296"/>
+        <c:axId val="108670336"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -980,7 +983,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80117120"/>
+        <c:crossAx val="108668800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1019,7 +1022,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1176,11 +1178,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80169216"/>
-        <c:axId val="80175104"/>
+        <c:axId val="108704512"/>
+        <c:axId val="108706048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80169216"/>
+        <c:axId val="108704512"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1188,12 +1190,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80175104"/>
+        <c:crossAx val="108706048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80175104"/>
+        <c:axId val="108706048"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1202,14 +1204,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80169216"/>
+        <c:crossAx val="108704512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1225,9 +1226,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1293,11 +1292,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80182656"/>
-        <c:axId val="80200832"/>
+        <c:axId val="108608128"/>
+        <c:axId val="108622208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80182656"/>
+        <c:axId val="108608128"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1305,12 +1304,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80200832"/>
+        <c:crossAx val="108622208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80200832"/>
+        <c:axId val="108622208"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1319,14 +1318,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80182656"/>
+        <c:crossAx val="108608128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1358,7 +1356,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1515,11 +1512,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80222464"/>
-        <c:axId val="80236544"/>
+        <c:axId val="108656128"/>
+        <c:axId val="108657664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80222464"/>
+        <c:axId val="108656128"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1527,12 +1524,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80236544"/>
+        <c:crossAx val="108657664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80236544"/>
+        <c:axId val="108657664"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1541,14 +1538,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80222464"/>
+        <c:crossAx val="108656128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1580,7 +1576,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1737,11 +1732,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80274560"/>
-        <c:axId val="80276096"/>
+        <c:axId val="108761472"/>
+        <c:axId val="108763008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80274560"/>
+        <c:axId val="108761472"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1749,12 +1744,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80276096"/>
+        <c:crossAx val="108763008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80276096"/>
+        <c:axId val="108763008"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1763,14 +1758,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80274560"/>
+        <c:crossAx val="108761472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1802,7 +1796,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1869,11 +1862,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="73472256"/>
-        <c:axId val="73502720"/>
+        <c:axId val="108786816"/>
+        <c:axId val="108788352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73472256"/>
+        <c:axId val="108786816"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1881,12 +1874,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73502720"/>
+        <c:crossAx val="108788352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73502720"/>
+        <c:axId val="108788352"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1895,14 +1888,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73472256"/>
+        <c:crossAx val="108786816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2091,11 +2083,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="73524736"/>
-        <c:axId val="73526272"/>
+        <c:axId val="108838912"/>
+        <c:axId val="108840448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73524736"/>
+        <c:axId val="108838912"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2103,12 +2095,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73526272"/>
+        <c:crossAx val="108840448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73526272"/>
+        <c:axId val="108840448"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2117,7 +2109,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73524736"/>
+        <c:crossAx val="108838912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2156,7 +2148,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2313,11 +2304,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="73585024"/>
-        <c:axId val="73586560"/>
+        <c:axId val="108927616"/>
+        <c:axId val="108937600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73585024"/>
+        <c:axId val="108927616"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2325,12 +2316,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73586560"/>
+        <c:crossAx val="108937600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73586560"/>
+        <c:axId val="108937600"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2339,14 +2330,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73585024"/>
+        <c:crossAx val="108927616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2534,11 +2524,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79534336"/>
-        <c:axId val="79548416"/>
+        <c:axId val="92937216"/>
+        <c:axId val="101819520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79534336"/>
+        <c:axId val="92937216"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2546,12 +2536,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79548416"/>
+        <c:crossAx val="101819520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79548416"/>
+        <c:axId val="101819520"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2560,7 +2550,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79534336"/>
+        <c:crossAx val="92937216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2582,9 +2572,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2650,11 +2638,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="73606656"/>
-        <c:axId val="73608192"/>
+        <c:axId val="108953600"/>
+        <c:axId val="108955136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73606656"/>
+        <c:axId val="108953600"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2662,12 +2650,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73608192"/>
+        <c:crossAx val="108955136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73608192"/>
+        <c:axId val="108955136"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2676,14 +2664,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73606656"/>
+        <c:crossAx val="108953600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2715,7 +2702,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2872,11 +2858,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="73638272"/>
-        <c:axId val="73639808"/>
+        <c:axId val="108977152"/>
+        <c:axId val="109003520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73638272"/>
+        <c:axId val="108977152"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2884,12 +2870,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73639808"/>
+        <c:crossAx val="109003520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73639808"/>
+        <c:axId val="109003520"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2898,14 +2884,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73638272"/>
+        <c:crossAx val="108977152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2937,7 +2922,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3094,11 +3078,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="73665152"/>
-        <c:axId val="73675136"/>
+        <c:axId val="109037440"/>
+        <c:axId val="109038976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73665152"/>
+        <c:axId val="109037440"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3106,12 +3090,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73675136"/>
+        <c:crossAx val="109038976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73675136"/>
+        <c:axId val="109038976"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3120,14 +3104,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73665152"/>
+        <c:crossAx val="109037440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3143,9 +3126,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3211,11 +3192,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="73707520"/>
-        <c:axId val="73709056"/>
+        <c:axId val="108878848"/>
+        <c:axId val="108884736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73707520"/>
+        <c:axId val="108878848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3223,12 +3204,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73709056"/>
+        <c:crossAx val="108884736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73709056"/>
+        <c:axId val="108884736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3237,14 +3218,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73707520"/>
+        <c:crossAx val="108878848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3276,7 +3256,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3433,11 +3412,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="73882240"/>
-        <c:axId val="73896320"/>
+        <c:axId val="108902272"/>
+        <c:axId val="108903808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73882240"/>
+        <c:axId val="108902272"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3445,12 +3424,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73896320"/>
+        <c:crossAx val="108903808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73896320"/>
+        <c:axId val="108903808"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3459,14 +3438,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73882240"/>
+        <c:crossAx val="108902272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3498,7 +3476,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3655,11 +3632,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="73921664"/>
-        <c:axId val="73923200"/>
+        <c:axId val="109084672"/>
+        <c:axId val="109086208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73921664"/>
+        <c:axId val="109084672"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3667,12 +3644,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73923200"/>
+        <c:crossAx val="109086208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73923200"/>
+        <c:axId val="109086208"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3681,14 +3658,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73921664"/>
+        <c:crossAx val="109084672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3704,9 +3680,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3772,11 +3746,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="73812224"/>
-        <c:axId val="73834496"/>
+        <c:axId val="109118592"/>
+        <c:axId val="109120128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73812224"/>
+        <c:axId val="109118592"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3784,12 +3758,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73834496"/>
+        <c:crossAx val="109120128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73834496"/>
+        <c:axId val="109120128"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3798,14 +3772,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73812224"/>
+        <c:crossAx val="109118592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4087,11 +4060,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="107213952"/>
-        <c:axId val="107203200"/>
+        <c:axId val="109146880"/>
+        <c:axId val="109148800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107213952"/>
+        <c:axId val="109146880"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4117,12 +4090,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107203200"/>
+        <c:crossAx val="109148800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107203200"/>
+        <c:axId val="109148800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4149,7 +4122,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107213952"/>
+        <c:crossAx val="109146880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4162,7 +4135,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4438,11 +4411,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="103829504"/>
-        <c:axId val="103880576"/>
+        <c:axId val="109192320"/>
+        <c:axId val="109194240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103829504"/>
+        <c:axId val="109192320"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4468,12 +4441,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103880576"/>
+        <c:crossAx val="109194240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103880576"/>
+        <c:axId val="109194240"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4500,7 +4473,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103829504"/>
+        <c:crossAx val="109192320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4513,7 +4486,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4789,11 +4762,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82055936"/>
-        <c:axId val="82101760"/>
+        <c:axId val="109323776"/>
+        <c:axId val="109325696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82055936"/>
+        <c:axId val="109323776"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4819,12 +4792,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82101760"/>
+        <c:crossAx val="109325696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82101760"/>
+        <c:axId val="109325696"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4851,7 +4824,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82055936"/>
+        <c:crossAx val="109323776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4864,7 +4837,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4890,7 +4863,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5047,11 +5019,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79434880"/>
-        <c:axId val="79436416"/>
+        <c:axId val="108243968"/>
+        <c:axId val="108249856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79434880"/>
+        <c:axId val="108243968"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5059,12 +5031,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79436416"/>
+        <c:crossAx val="108249856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79436416"/>
+        <c:axId val="108249856"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5073,14 +5045,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79434880"/>
+        <c:crossAx val="108243968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -5112,7 +5083,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5269,11 +5239,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79486976"/>
-        <c:axId val="79488512"/>
+        <c:axId val="108345216"/>
+        <c:axId val="108346752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79486976"/>
+        <c:axId val="108345216"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5281,12 +5251,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79488512"/>
+        <c:crossAx val="108346752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79488512"/>
+        <c:axId val="108346752"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5295,14 +5265,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79486976"/>
+        <c:crossAx val="108345216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -5334,7 +5303,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5401,11 +5369,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79805824"/>
-        <c:axId val="79819904"/>
+        <c:axId val="108366848"/>
+        <c:axId val="108376832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79805824"/>
+        <c:axId val="108366848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5413,12 +5381,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79819904"/>
+        <c:crossAx val="108376832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79819904"/>
+        <c:axId val="108376832"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5427,14 +5395,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79805824"/>
+        <c:crossAx val="108366848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -5466,7 +5433,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5533,11 +5499,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79852288"/>
-        <c:axId val="79853824"/>
+        <c:axId val="108401024"/>
+        <c:axId val="108402560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79852288"/>
+        <c:axId val="108401024"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5545,12 +5511,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79853824"/>
+        <c:crossAx val="108402560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79853824"/>
+        <c:axId val="108402560"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5559,14 +5525,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79852288"/>
+        <c:crossAx val="108401024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -5598,7 +5563,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5755,11 +5719,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79870976"/>
-        <c:axId val="79880960"/>
+        <c:axId val="108424192"/>
+        <c:axId val="108442368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79870976"/>
+        <c:axId val="108424192"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5767,12 +5731,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79880960"/>
+        <c:crossAx val="108442368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79880960"/>
+        <c:axId val="108442368"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5781,14 +5745,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79870976"/>
+        <c:crossAx val="108424192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -5820,7 +5783,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5887,11 +5849,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79925632"/>
-        <c:axId val="79927168"/>
+        <c:axId val="108540288"/>
+        <c:axId val="108541824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79925632"/>
+        <c:axId val="108540288"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5899,12 +5861,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79927168"/>
+        <c:crossAx val="108541824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79927168"/>
+        <c:axId val="108541824"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5913,14 +5875,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79925632"/>
+        <c:crossAx val="108540288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -5952,7 +5913,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6109,11 +6069,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80012032"/>
-        <c:axId val="80013568"/>
+        <c:axId val="108571648"/>
+        <c:axId val="108585728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80012032"/>
+        <c:axId val="108571648"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6121,12 +6081,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80013568"/>
+        <c:crossAx val="108585728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80013568"/>
+        <c:axId val="108585728"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6135,14 +6095,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80012032"/>
+        <c:crossAx val="108571648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -7314,10 +7273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y166"/>
+  <dimension ref="A1:Y178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K176" sqref="K176"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10027,7 +9986,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="161" spans="14:16">
+    <row r="161" spans="1:16">
       <c r="O161">
         <v>0.1</v>
       </c>
@@ -10035,12 +9994,12 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="162" spans="14:16">
+    <row r="162" spans="1:16">
       <c r="N162" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="14:16">
+    <row r="163" spans="1:16">
       <c r="N163" t="s">
         <v>19</v>
       </c>
@@ -10051,7 +10010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="14:16">
+    <row r="164" spans="1:16">
       <c r="O164">
         <v>0.1</v>
       </c>
@@ -10059,7 +10018,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="165" spans="14:16">
+    <row r="165" spans="1:16">
       <c r="N165" t="s">
         <v>20</v>
       </c>
@@ -10070,12 +10029,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="14:16">
+    <row r="166" spans="1:16">
       <c r="O166">
         <v>0.1</v>
       </c>
       <c r="P166">
         <v>1E-4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16">
+      <c r="A176" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9">
+      <c r="B177" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D177">
+        <v>420</v>
+      </c>
+      <c r="E177">
+        <v>484</v>
+      </c>
+      <c r="F177">
+        <v>512</v>
+      </c>
+      <c r="G177">
+        <v>8.5985000000000006E-2</v>
+      </c>
+      <c r="H177">
+        <v>0.28201999999999999</v>
+      </c>
+      <c r="I177">
+        <v>6.8597000000000005E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9">
+      <c r="B178" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D178">
+        <v>14766</v>
+      </c>
+      <c r="E178">
+        <v>15162</v>
+      </c>
+      <c r="F178">
+        <v>15318</v>
+      </c>
+      <c r="G178">
+        <v>1.5759000000000001E-3</v>
+      </c>
+      <c r="H178">
+        <v>0.29108000000000001</v>
+      </c>
+      <c r="I178">
+        <v>0.55823999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/error_computation/frictionless_sliding_analyt_8/frictionless_convergencestudy.xlsx
+++ b/error_computation/frictionless_sliding_analyt_8/frictionless_convergencestudy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="6300" windowHeight="4125"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="6300" windowHeight="4125" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Error norms" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="48">
   <si>
     <t>Database for example "inp_frictionless_sliding_analyt_8"</t>
   </si>
@@ -119,15 +119,6 @@
     <t>here, penalty parameter chosen such that displacement error is the same in the coarsest mesh with Nitsche and then scaled 1/h^2</t>
   </si>
   <si>
-    <t>unstructured meshing</t>
-  </si>
-  <si>
-    <t>inp_frictionless_sliding_analyt_8_420</t>
-  </si>
-  <si>
-    <t>inp_frictionless_sliding_analyt_8_14766</t>
-  </si>
-  <si>
     <t>choose stabilization parameter automatically</t>
   </si>
   <si>
@@ -147,6 +138,27 @@
   </si>
   <si>
     <t>Traction</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>mesh size h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">displacement </t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>traction</t>
+  </si>
+  <si>
+    <t>Lagrange</t>
+  </si>
+  <si>
+    <t>penalty</t>
   </si>
 </sst>
 </file>
@@ -429,11 +441,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="75156864"/>
-        <c:axId val="82732160"/>
+        <c:axId val="67040768"/>
+        <c:axId val="74273920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75156864"/>
+        <c:axId val="67040768"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -441,12 +453,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82732160"/>
+        <c:crossAx val="74273920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82732160"/>
+        <c:axId val="74273920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -455,7 +467,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75156864"/>
+        <c:crossAx val="67040768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -649,11 +661,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87506944"/>
-        <c:axId val="87508480"/>
+        <c:axId val="79052800"/>
+        <c:axId val="79054336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87506944"/>
+        <c:axId val="79052800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -661,12 +673,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87508480"/>
+        <c:crossAx val="79054336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87508480"/>
+        <c:axId val="79054336"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -675,7 +687,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87506944"/>
+        <c:crossAx val="79052800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -780,11 +792,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87540864"/>
-        <c:axId val="87542400"/>
+        <c:axId val="79082624"/>
+        <c:axId val="79084160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87540864"/>
+        <c:axId val="79082624"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -792,12 +804,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87542400"/>
+        <c:crossAx val="79084160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87542400"/>
+        <c:axId val="79084160"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -806,7 +818,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87540864"/>
+        <c:crossAx val="79082624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1002,11 +1014,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87449600"/>
-        <c:axId val="87451136"/>
+        <c:axId val="78999552"/>
+        <c:axId val="79001088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87449600"/>
+        <c:axId val="78999552"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1014,12 +1026,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87451136"/>
+        <c:crossAx val="79001088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87451136"/>
+        <c:axId val="79001088"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1028,7 +1040,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87449600"/>
+        <c:crossAx val="78999552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1223,11 +1235,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87485056"/>
-        <c:axId val="87568768"/>
+        <c:axId val="79018624"/>
+        <c:axId val="79114624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87485056"/>
+        <c:axId val="79018624"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1235,12 +1247,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87568768"/>
+        <c:crossAx val="79114624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87568768"/>
+        <c:axId val="79114624"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1249,7 +1261,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87485056"/>
+        <c:crossAx val="79018624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1339,11 +1351,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87589632"/>
-        <c:axId val="87591168"/>
+        <c:axId val="79135488"/>
+        <c:axId val="79137024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87589632"/>
+        <c:axId val="79135488"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1351,12 +1363,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87591168"/>
+        <c:crossAx val="79137024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87591168"/>
+        <c:axId val="79137024"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1365,7 +1377,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87589632"/>
+        <c:crossAx val="79135488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1561,11 +1573,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87629184"/>
-        <c:axId val="87643264"/>
+        <c:axId val="79175040"/>
+        <c:axId val="79189120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87629184"/>
+        <c:axId val="79175040"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1573,12 +1585,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87643264"/>
+        <c:crossAx val="79189120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87643264"/>
+        <c:axId val="79189120"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1587,7 +1599,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87629184"/>
+        <c:crossAx val="79175040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1782,11 +1794,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87656704"/>
-        <c:axId val="87674880"/>
+        <c:axId val="79202560"/>
+        <c:axId val="79220736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87656704"/>
+        <c:axId val="79202560"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1794,12 +1806,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87674880"/>
+        <c:crossAx val="79220736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87674880"/>
+        <c:axId val="79220736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1808,7 +1820,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87656704"/>
+        <c:crossAx val="79202560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1913,11 +1925,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87686144"/>
-        <c:axId val="87831296"/>
+        <c:axId val="79232000"/>
+        <c:axId val="79373056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87686144"/>
+        <c:axId val="79232000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1925,12 +1937,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87831296"/>
+        <c:crossAx val="79373056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87831296"/>
+        <c:axId val="79373056"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1939,7 +1951,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87686144"/>
+        <c:crossAx val="79232000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2135,11 +2147,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87865216"/>
-        <c:axId val="87866752"/>
+        <c:axId val="79411072"/>
+        <c:axId val="79412608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87865216"/>
+        <c:axId val="79411072"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2147,12 +2159,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87866752"/>
+        <c:crossAx val="79412608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87866752"/>
+        <c:axId val="79412608"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2161,7 +2173,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87865216"/>
+        <c:crossAx val="79411072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2356,11 +2368,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87896832"/>
-        <c:axId val="87898368"/>
+        <c:axId val="79504128"/>
+        <c:axId val="79505664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87896832"/>
+        <c:axId val="79504128"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2368,12 +2380,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87898368"/>
+        <c:crossAx val="79505664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87898368"/>
+        <c:axId val="79505664"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2382,7 +2394,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87896832"/>
+        <c:crossAx val="79504128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2576,11 +2588,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82750080"/>
-        <c:axId val="82764160"/>
+        <c:axId val="74291840"/>
+        <c:axId val="74305920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82750080"/>
+        <c:axId val="74291840"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2588,12 +2600,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82764160"/>
+        <c:crossAx val="74305920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82764160"/>
+        <c:axId val="74305920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2602,7 +2614,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82750080"/>
+        <c:crossAx val="74291840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2692,11 +2704,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87938944"/>
-        <c:axId val="87940480"/>
+        <c:axId val="79550336"/>
+        <c:axId val="79551872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87938944"/>
+        <c:axId val="79550336"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2704,12 +2716,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87940480"/>
+        <c:crossAx val="79551872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87940480"/>
+        <c:axId val="79551872"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2718,7 +2730,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87938944"/>
+        <c:crossAx val="79550336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2914,11 +2926,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87987328"/>
-        <c:axId val="87988864"/>
+        <c:axId val="79594624"/>
+        <c:axId val="79596160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87987328"/>
+        <c:axId val="79594624"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2926,12 +2938,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87988864"/>
+        <c:crossAx val="79596160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87988864"/>
+        <c:axId val="79596160"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2940,7 +2952,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87987328"/>
+        <c:crossAx val="79594624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3135,11 +3147,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88014208"/>
-        <c:axId val="88089728"/>
+        <c:axId val="79617408"/>
+        <c:axId val="79635584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88014208"/>
+        <c:axId val="79617408"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3147,12 +3159,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88089728"/>
+        <c:crossAx val="79635584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88089728"/>
+        <c:axId val="79635584"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3161,7 +3173,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88014208"/>
+        <c:crossAx val="79617408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3251,11 +3263,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88118016"/>
-        <c:axId val="88119552"/>
+        <c:axId val="79663872"/>
+        <c:axId val="79665408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88118016"/>
+        <c:axId val="79663872"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3263,12 +3275,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88119552"/>
+        <c:crossAx val="79665408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88119552"/>
+        <c:axId val="79665408"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3277,7 +3289,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88118016"/>
+        <c:crossAx val="79663872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3473,11 +3485,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88137088"/>
-        <c:axId val="88036480"/>
+        <c:axId val="79682944"/>
+        <c:axId val="79451264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88137088"/>
+        <c:axId val="79682944"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3485,12 +3497,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88036480"/>
+        <c:crossAx val="79451264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88036480"/>
+        <c:axId val="79451264"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3499,7 +3511,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88137088"/>
+        <c:crossAx val="79682944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3694,11 +3706,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88053632"/>
-        <c:axId val="88055168"/>
+        <c:axId val="79468416"/>
+        <c:axId val="79469952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88053632"/>
+        <c:axId val="79468416"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3706,12 +3718,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88055168"/>
+        <c:crossAx val="79469952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88055168"/>
+        <c:axId val="79469952"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3720,7 +3732,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88053632"/>
+        <c:crossAx val="79468416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3810,11 +3822,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88284160"/>
-        <c:axId val="88294144"/>
+        <c:axId val="79830016"/>
+        <c:axId val="79835904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88284160"/>
+        <c:axId val="79830016"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3822,12 +3834,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88294144"/>
+        <c:crossAx val="79835904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88294144"/>
+        <c:axId val="79835904"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3836,7 +3848,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88284160"/>
+        <c:crossAx val="79830016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4064,11 +4076,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88319872"/>
-        <c:axId val="88211456"/>
+        <c:axId val="79869824"/>
+        <c:axId val="79757312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88319872"/>
+        <c:axId val="79869824"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4094,16 +4106,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88211456"/>
+        <c:crossAx val="79757312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88211456"/>
+        <c:axId val="79757312"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1.0000000000000002E-2"/>
+          <c:max val="1.0000000000000004E-2"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -4127,7 +4139,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88319872"/>
+        <c:crossAx val="79869824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4355,11 +4367,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88249856"/>
-        <c:axId val="88251776"/>
+        <c:axId val="79795712"/>
+        <c:axId val="79797632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88249856"/>
+        <c:axId val="79795712"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4385,12 +4397,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88251776"/>
+        <c:crossAx val="79797632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88251776"/>
+        <c:axId val="79797632"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4417,7 +4429,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88249856"/>
+        <c:crossAx val="79795712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4645,11 +4657,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88360064"/>
-        <c:axId val="88361984"/>
+        <c:axId val="79967360"/>
+        <c:axId val="79969280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88360064"/>
+        <c:axId val="79967360"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4675,12 +4687,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88361984"/>
+        <c:crossAx val="79969280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88361984"/>
+        <c:axId val="79969280"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4707,7 +4719,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88360064"/>
+        <c:crossAx val="79967360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4746,6 +4758,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4902,11 +4915,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82667008"/>
-        <c:axId val="82668544"/>
+        <c:axId val="74208768"/>
+        <c:axId val="74210304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82667008"/>
+        <c:axId val="74208768"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4914,12 +4927,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82668544"/>
+        <c:crossAx val="74210304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82668544"/>
+        <c:axId val="74210304"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4928,19 +4941,287 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82667008"/>
+        <c:crossAx val="74208768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Penalty parameter</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$A$180:$A$185</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$B$180:$B$185</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>295000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1170000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2620000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4640000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Nitsche parameter</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$A$180:$A$185</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.50619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3892000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0490999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5299999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$180:$C$185</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6833.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$A$187</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$B$187:$B$188</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$187:$C$188</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Error norms'!$A$189</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rate 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Error norms'!$B$189:$B$190</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Error norms'!$C$189:$C$190</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="103708928"/>
+        <c:axId val="103707392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="103708928"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="3.0000000000000002E-2"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103707392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="103707392"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103708928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5122,11 +5403,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82702720"/>
-        <c:axId val="82704256"/>
+        <c:axId val="78774656"/>
+        <c:axId val="78776192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82702720"/>
+        <c:axId val="78774656"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5134,12 +5415,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82704256"/>
+        <c:crossAx val="78776192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82704256"/>
+        <c:axId val="78776192"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5148,7 +5429,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82702720"/>
+        <c:crossAx val="78774656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5252,11 +5533,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87242240"/>
-        <c:axId val="87243776"/>
+        <c:axId val="78792192"/>
+        <c:axId val="78793728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87242240"/>
+        <c:axId val="78792192"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5264,12 +5545,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87243776"/>
+        <c:crossAx val="78793728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87243776"/>
+        <c:axId val="78793728"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5278,7 +5559,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87242240"/>
+        <c:crossAx val="78792192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5316,6 +5597,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5382,11 +5664,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87288448"/>
-        <c:axId val="87294336"/>
+        <c:axId val="78826112"/>
+        <c:axId val="78840192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87288448"/>
+        <c:axId val="78826112"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5394,12 +5676,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87294336"/>
+        <c:crossAx val="78840192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87294336"/>
+        <c:axId val="78840192"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5408,13 +5690,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87288448"/>
+        <c:crossAx val="78826112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -5602,11 +5885,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87324160"/>
-        <c:axId val="87325696"/>
+        <c:axId val="78870016"/>
+        <c:axId val="78871552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87324160"/>
+        <c:axId val="78870016"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5614,12 +5897,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87325696"/>
+        <c:crossAx val="78871552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87325696"/>
+        <c:axId val="78871552"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5628,7 +5911,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87324160"/>
+        <c:crossAx val="78870016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5732,11 +6015,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87341696"/>
-        <c:axId val="87359872"/>
+        <c:axId val="78887552"/>
+        <c:axId val="78905728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87341696"/>
+        <c:axId val="78887552"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5744,12 +6027,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87359872"/>
+        <c:crossAx val="78905728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87359872"/>
+        <c:axId val="78905728"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5758,7 +6041,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87341696"/>
+        <c:crossAx val="78887552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5953,11 +6236,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87401600"/>
-        <c:axId val="87403136"/>
+        <c:axId val="78943360"/>
+        <c:axId val="78944896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87401600"/>
+        <c:axId val="78943360"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5965,12 +6248,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87403136"/>
+        <c:crossAx val="78944896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87403136"/>
+        <c:axId val="78944896"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5979,7 +6262,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87401600"/>
+        <c:crossAx val="78943360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6870,6 +7153,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>569819</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>10085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>191060</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>88526</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="40" name="Diagramm 39"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7158,10 +7471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y178"/>
+  <dimension ref="A1:Y190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
+    <sheetView topLeftCell="A165" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9617,7 +9930,7 @@
     </row>
     <row r="140" spans="1:25">
       <c r="A140" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B140" s="9"/>
       <c r="C140" s="8"/>
@@ -10025,54 +10338,127 @@
       </c>
     </row>
     <row r="176" spans="1:16">
-      <c r="A176" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="177" spans="2:9">
-      <c r="B177" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D177">
-        <v>420</v>
-      </c>
-      <c r="E177">
-        <v>484</v>
-      </c>
-      <c r="F177">
-        <v>512</v>
-      </c>
-      <c r="G177">
-        <v>8.5985000000000006E-2</v>
-      </c>
-      <c r="H177">
-        <v>0.28201999999999999</v>
-      </c>
-      <c r="I177">
-        <v>6.8597000000000005E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9">
-      <c r="B178" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D178">
-        <v>14766</v>
-      </c>
-      <c r="E178">
-        <v>15162</v>
-      </c>
-      <c r="F178">
-        <v>15318</v>
-      </c>
-      <c r="G178">
-        <v>1.5759000000000001E-3</v>
-      </c>
-      <c r="H178">
-        <v>0.29108000000000001</v>
-      </c>
-      <c r="I178">
-        <v>0.55823999999999996</v>
+      <c r="A176" s="1"/>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>41</v>
+      </c>
+      <c r="B178"/>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>42</v>
+      </c>
+      <c r="B179" t="s">
+        <v>47</v>
+      </c>
+      <c r="C179" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="15">
+        <v>0.50619999999999998</v>
+      </c>
+      <c r="B180" s="3">
+        <v>90000</v>
+      </c>
+      <c r="C180" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="15">
+        <v>0.27940999999999999</v>
+      </c>
+      <c r="B181" s="3">
+        <v>295000</v>
+      </c>
+      <c r="C181" s="3">
+        <v>6833.3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="15">
+        <v>0.14055000000000001</v>
+      </c>
+      <c r="B182" s="3">
+        <v>1170000</v>
+      </c>
+      <c r="C182" s="3">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="15">
+        <v>9.3892000000000003E-2</v>
+      </c>
+      <c r="B183" s="3">
+        <v>2620000</v>
+      </c>
+      <c r="C183" s="3">
+        <v>20167</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="15">
+        <v>7.0490999999999998E-2</v>
+      </c>
+      <c r="B184" s="3">
+        <v>4640000</v>
+      </c>
+      <c r="C184" s="3">
+        <v>26833</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="15">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="B185" s="3">
+        <v>18500000</v>
+      </c>
+      <c r="C185" s="3">
+        <v>53500</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>19</v>
+      </c>
+      <c r="B187" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="C187" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="B188" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C188" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>20</v>
+      </c>
+      <c r="B189" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="C189" s="3">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="B190" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C190" s="3">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -10084,10 +10470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:D27"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10102,7 +10488,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10110,567 +10496,727 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="15">
-        <v>0.50619999999999998</v>
-      </c>
-      <c r="B6" s="15">
-        <v>5.2655999999999996E-3</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0.32915</v>
-      </c>
-      <c r="D6" s="15">
-        <v>4.2683</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15">
-        <v>0.50619999999999998</v>
-      </c>
-      <c r="H6" s="15">
-        <v>5.2655999999999996E-3</v>
-      </c>
-      <c r="I6" s="15">
-        <v>5.2431999999999999E-3</v>
-      </c>
-      <c r="J6" s="15">
-        <v>5.2491999999999999E-3</v>
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="15">
-        <v>0.27940999999999999</v>
+        <v>0.50619999999999998</v>
       </c>
       <c r="B7" s="15">
-        <v>1.6842000000000001E-3</v>
+        <v>5.2655999999999996E-3</v>
       </c>
       <c r="C7" s="15">
-        <v>0.18454000000000001</v>
+        <v>0.32915</v>
       </c>
       <c r="D7" s="15">
-        <v>7.4970999999999997</v>
+        <v>4.2683</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="15">
-        <v>0.27940999999999999</v>
+        <v>0.50619999999999998</v>
       </c>
       <c r="H7" s="15">
-        <v>1.6842000000000001E-3</v>
+        <v>5.2655999999999996E-3</v>
       </c>
       <c r="I7" s="15">
-        <v>1.6561E-3</v>
+        <v>5.2431999999999999E-3</v>
       </c>
       <c r="J7" s="15">
-        <v>1.6666999999999999E-3</v>
+        <v>5.2491999999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="15">
-        <v>0.14055000000000001</v>
+        <v>0.27940999999999999</v>
       </c>
       <c r="B8" s="15">
-        <v>5.0378E-4</v>
+        <v>1.6842000000000001E-3</v>
       </c>
       <c r="C8" s="15">
-        <v>9.2914999999999998E-2</v>
+        <v>0.18454000000000001</v>
       </c>
       <c r="D8" s="15">
-        <v>15.3284</v>
+        <v>7.4970999999999997</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="15">
-        <v>0.14055000000000001</v>
+        <v>0.27940999999999999</v>
       </c>
       <c r="H8" s="15">
-        <v>5.0378E-4</v>
+        <v>1.6842000000000001E-3</v>
       </c>
       <c r="I8" s="15">
-        <v>4.9487999999999995E-4</v>
+        <v>1.6561E-3</v>
       </c>
       <c r="J8" s="15">
-        <v>5.0233999999999999E-4</v>
+        <v>1.6666999999999999E-3</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="15">
-        <v>9.3892000000000003E-2</v>
+        <v>0.14055000000000001</v>
       </c>
       <c r="B9" s="15">
-        <v>2.5033E-4</v>
+        <v>5.0378E-4</v>
       </c>
       <c r="C9" s="15">
-        <v>6.2086000000000002E-2</v>
+        <v>9.2914999999999998E-2</v>
       </c>
       <c r="D9" s="15">
-        <v>23.099299999999999</v>
+        <v>15.3284</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="15">
-        <v>9.3892000000000003E-2</v>
+        <v>0.14055000000000001</v>
       </c>
       <c r="H9" s="15">
-        <v>2.5033E-4</v>
+        <v>5.0378E-4</v>
       </c>
       <c r="I9" s="15">
-        <v>2.4644000000000001E-4</v>
+        <v>4.9487999999999995E-4</v>
       </c>
       <c r="J9" s="15">
-        <v>2.5024999999999998E-4</v>
+        <v>5.0233999999999999E-4</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="15">
-        <v>7.0490999999999998E-2</v>
+        <v>9.3892000000000003E-2</v>
       </c>
       <c r="B10" s="15">
-        <v>1.5364999999999999E-4</v>
+        <v>2.5033E-4</v>
       </c>
       <c r="C10" s="15">
-        <v>4.6618E-2</v>
+        <v>6.2086000000000002E-2</v>
       </c>
       <c r="D10" s="15">
-        <v>30.856200000000001</v>
+        <v>23.099299999999999</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="15">
-        <v>7.0490999999999998E-2</v>
+        <v>9.3892000000000003E-2</v>
       </c>
       <c r="H10" s="15">
-        <v>1.5364999999999999E-4</v>
+        <v>2.5033E-4</v>
       </c>
       <c r="I10" s="15">
-        <v>1.5165E-4</v>
+        <v>2.4644000000000001E-4</v>
       </c>
       <c r="J10" s="15">
-        <v>1.5384E-4</v>
+        <v>2.5024999999999998E-4</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="15">
-        <v>3.5299999999999998E-2</v>
+        <v>7.0490999999999998E-2</v>
       </c>
       <c r="B11" s="15">
-        <v>4.9234000000000003E-5</v>
+        <v>1.5364999999999999E-4</v>
       </c>
       <c r="C11" s="15">
-        <v>2.3348000000000001E-2</v>
+        <v>4.6618E-2</v>
       </c>
       <c r="D11" s="15">
-        <v>61.853999999999999</v>
+        <v>30.856200000000001</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="15">
+        <v>7.0490999999999998E-2</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1.5364999999999999E-4</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1.5165E-4</v>
+      </c>
+      <c r="J11" s="15">
+        <v>1.5384E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="15">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="H11" s="15">
+      <c r="B12" s="15">
         <v>4.9234000000000003E-5</v>
       </c>
-      <c r="I11" s="15">
-        <v>4.8841999999999998E-5</v>
-      </c>
-      <c r="J11" s="15">
-        <v>4.9327999999999999E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="16"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="C12" s="15">
+        <v>2.3348000000000001E-2</v>
+      </c>
+      <c r="D12" s="15">
+        <v>61.853999999999999</v>
+      </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="G12" s="15">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="H12" s="15">
+        <v>4.9234000000000003E-5</v>
+      </c>
+      <c r="I12" s="15">
+        <v>4.8841999999999998E-5</v>
+      </c>
+      <c r="J12" s="15">
+        <v>4.9327999999999999E-5</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="16" t="s">
-        <v>39</v>
-      </c>
+      <c r="A13" s="16"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="16" t="s">
-        <v>42</v>
-      </c>
+      <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="15">
-        <v>0.50619999999999998</v>
-      </c>
-      <c r="B14" s="15">
-        <v>5.2431999999999999E-3</v>
-      </c>
-      <c r="C14" s="15">
-        <v>0.32779000000000003</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0.54015999999999997</v>
-      </c>
+      <c r="A14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="15">
-        <v>0.50619999999999998</v>
-      </c>
-      <c r="H14" s="15">
-        <v>0.32915</v>
-      </c>
-      <c r="I14" s="15">
-        <v>0.32779000000000003</v>
-      </c>
-      <c r="J14" s="15">
-        <v>0.32662000000000002</v>
-      </c>
+      <c r="G14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="15">
-        <v>0.27940999999999999</v>
-      </c>
-      <c r="B15" s="15">
-        <v>1.6561E-3</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0.18404999999999999</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0.35819000000000001</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15">
-        <v>0.27940999999999999</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0.18454000000000001</v>
-      </c>
-      <c r="I15" s="15">
-        <v>0.18404999999999999</v>
-      </c>
-      <c r="J15" s="15">
-        <v>0.18382999999999999</v>
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="15">
-        <v>0.14055000000000001</v>
+        <v>0.50619999999999998</v>
       </c>
       <c r="B16" s="15">
-        <v>4.9487999999999995E-4</v>
+        <v>5.2431999999999999E-3</v>
       </c>
       <c r="C16" s="15">
-        <v>9.2779E-2</v>
+        <v>0.32779000000000003</v>
       </c>
       <c r="D16" s="15">
-        <v>0.21196000000000001</v>
+        <v>0.54015999999999997</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="15">
-        <v>0.14055000000000001</v>
+        <v>0.50619999999999998</v>
       </c>
       <c r="H16" s="15">
-        <v>9.2914999999999998E-2</v>
+        <v>0.32915</v>
       </c>
       <c r="I16" s="15">
-        <v>9.2779E-2</v>
+        <v>0.32779000000000003</v>
       </c>
       <c r="J16" s="15">
-        <v>9.2743999999999993E-2</v>
+        <v>0.32662000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="15">
-        <v>9.3892000000000003E-2</v>
+        <v>0.27940999999999999</v>
       </c>
       <c r="B17" s="15">
-        <v>2.4644000000000001E-4</v>
+        <v>1.6561E-3</v>
       </c>
       <c r="C17" s="15">
-        <v>6.2023000000000002E-2</v>
+        <v>0.18404999999999999</v>
       </c>
       <c r="D17" s="15">
-        <v>0.15285000000000001</v>
+        <v>0.35819000000000001</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="15">
-        <v>9.3892000000000003E-2</v>
+        <v>0.27940999999999999</v>
       </c>
       <c r="H17" s="15">
-        <v>6.2086000000000002E-2</v>
+        <v>0.18454000000000001</v>
       </c>
       <c r="I17" s="15">
-        <v>6.2023000000000002E-2</v>
+        <v>0.18404999999999999</v>
       </c>
       <c r="J17" s="15">
-        <v>6.2011999999999998E-2</v>
+        <v>0.18382999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="15">
-        <v>7.0490999999999998E-2</v>
+        <v>0.14055000000000001</v>
       </c>
       <c r="B18" s="15">
-        <v>1.5165E-4</v>
+        <v>4.9487999999999995E-4</v>
       </c>
       <c r="C18" s="15">
-        <v>4.6581999999999998E-2</v>
+        <v>9.2779E-2</v>
       </c>
       <c r="D18" s="15">
-        <v>0.12267</v>
+        <v>0.21196000000000001</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="15">
-        <v>7.0490999999999998E-2</v>
+        <v>0.14055000000000001</v>
       </c>
       <c r="H18" s="15">
-        <v>4.6618E-2</v>
+        <v>9.2914999999999998E-2</v>
       </c>
       <c r="I18" s="15">
-        <v>4.6581999999999998E-2</v>
+        <v>9.2779E-2</v>
       </c>
       <c r="J18" s="15">
-        <v>4.6575999999999999E-2</v>
+        <v>9.2743999999999993E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="15">
-        <v>3.5299999999999998E-2</v>
+        <v>9.3892000000000003E-2</v>
       </c>
       <c r="B19" s="15">
-        <v>4.8841999999999998E-5</v>
+        <v>2.4644000000000001E-4</v>
       </c>
       <c r="C19" s="15">
-        <v>2.3338000000000001E-2</v>
+        <v>6.2023000000000002E-2</v>
       </c>
       <c r="D19" s="15">
-        <v>7.2650000000000006E-2</v>
+        <v>0.15285000000000001</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="15">
-        <v>3.5299999999999998E-2</v>
+        <v>9.3892000000000003E-2</v>
       </c>
       <c r="H19" s="15">
-        <v>2.3348000000000001E-2</v>
+        <v>6.2086000000000002E-2</v>
       </c>
       <c r="I19" s="15">
-        <v>2.3338000000000001E-2</v>
+        <v>6.2023000000000002E-2</v>
       </c>
       <c r="J19" s="15">
-        <v>2.3338000000000001E-2</v>
+        <v>6.2011999999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="16"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="A20" s="15">
+        <v>7.0490999999999998E-2</v>
+      </c>
+      <c r="B20" s="15">
+        <v>1.5165E-4</v>
+      </c>
+      <c r="C20" s="15">
+        <v>4.6581999999999998E-2</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.12267</v>
+      </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
+      <c r="G20" s="15">
+        <v>7.0490999999999998E-2</v>
+      </c>
+      <c r="H20" s="15">
+        <v>4.6618E-2</v>
+      </c>
+      <c r="I20" s="15">
+        <v>4.6581999999999998E-2</v>
+      </c>
+      <c r="J20" s="15">
+        <v>4.6575999999999999E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="A21" s="15">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="B21" s="15">
+        <v>4.8841999999999998E-5</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2.3338000000000001E-2</v>
+      </c>
+      <c r="D21" s="15">
+        <v>7.2650000000000006E-2</v>
+      </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+      <c r="G21" s="15">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="H21" s="15">
+        <v>2.3348000000000001E-2</v>
+      </c>
+      <c r="I21" s="15">
+        <v>2.3338000000000001E-2</v>
+      </c>
+      <c r="J21" s="15">
+        <v>2.3338000000000001E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="15">
-        <v>0.50619999999999998</v>
-      </c>
-      <c r="B22" s="15">
-        <v>5.2491999999999999E-3</v>
-      </c>
-      <c r="C22" s="15">
-        <v>0.32662000000000002</v>
-      </c>
-      <c r="D22" s="15">
-        <v>0.20412</v>
-      </c>
+      <c r="A22" s="16"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="15">
-        <v>0.50619999999999998</v>
-      </c>
-      <c r="H22" s="15">
-        <v>4.2683</v>
-      </c>
-      <c r="I22" s="15">
-        <v>0.54015999999999997</v>
-      </c>
-      <c r="J22" s="15">
-        <v>0.20412</v>
-      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="15">
-        <v>0.27940999999999999</v>
-      </c>
-      <c r="B23" s="15">
-        <v>1.6666999999999999E-3</v>
-      </c>
-      <c r="C23" s="15">
-        <v>0.18382999999999999</v>
-      </c>
-      <c r="D23" s="15">
-        <v>0.11226999999999999</v>
-      </c>
+      <c r="A23" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
-      <c r="G23" s="15">
-        <v>0.27940999999999999</v>
-      </c>
-      <c r="H23" s="15">
-        <v>7.4970999999999997</v>
-      </c>
-      <c r="I23" s="15">
-        <v>0.35819000000000001</v>
-      </c>
-      <c r="J23" s="15">
-        <v>0.11226999999999999</v>
-      </c>
+      <c r="G23" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="15">
-        <v>0.14055000000000001</v>
-      </c>
-      <c r="B24" s="15">
-        <v>5.0233999999999999E-4</v>
-      </c>
-      <c r="C24" s="15">
-        <v>9.2743999999999993E-2</v>
-      </c>
-      <c r="D24" s="15">
-        <v>5.3135000000000002E-2</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="15">
-        <v>0.14055000000000001</v>
-      </c>
-      <c r="H24" s="15">
-        <v>15.3284</v>
-      </c>
-      <c r="I24" s="15">
-        <v>0.21196000000000001</v>
-      </c>
-      <c r="J24" s="15">
-        <v>5.3135000000000002E-2</v>
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="15">
-        <v>9.3892000000000003E-2</v>
+        <v>0.50619999999999998</v>
       </c>
       <c r="B25" s="15">
-        <v>2.5024999999999998E-4</v>
+        <v>5.2491999999999999E-3</v>
       </c>
       <c r="C25" s="15">
-        <v>6.2011999999999998E-2</v>
+        <v>0.32662000000000002</v>
       </c>
       <c r="D25" s="15">
-        <v>3.474E-2</v>
+        <v>0.20412</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="15">
-        <v>9.3892000000000003E-2</v>
+        <v>0.50619999999999998</v>
       </c>
       <c r="H25" s="15">
-        <v>23.099299999999999</v>
+        <v>4.2683</v>
       </c>
       <c r="I25" s="15">
-        <v>0.15285000000000001</v>
+        <v>0.54015999999999997</v>
       </c>
       <c r="J25" s="15">
-        <v>3.474E-2</v>
+        <v>0.20412</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="15">
-        <v>7.0490999999999998E-2</v>
+        <v>0.27940999999999999</v>
       </c>
       <c r="B26" s="15">
-        <v>1.5384E-4</v>
+        <v>1.6666999999999999E-3</v>
       </c>
       <c r="C26" s="15">
-        <v>4.6575999999999999E-2</v>
+        <v>0.18382999999999999</v>
       </c>
       <c r="D26" s="15">
-        <v>2.5794999999999998E-2</v>
+        <v>0.11226999999999999</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="15">
-        <v>7.0490999999999998E-2</v>
+        <v>0.27940999999999999</v>
       </c>
       <c r="H26" s="15">
-        <v>30.856200000000001</v>
+        <v>7.4970999999999997</v>
       </c>
       <c r="I26" s="15">
-        <v>0.12267</v>
+        <v>0.35819000000000001</v>
       </c>
       <c r="J26" s="15">
-        <v>2.5794999999999998E-2</v>
+        <v>0.11226999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="15">
-        <v>3.5299999999999998E-2</v>
+        <v>0.14055000000000001</v>
       </c>
       <c r="B27" s="15">
-        <v>4.9327999999999999E-5</v>
+        <v>5.0233999999999999E-4</v>
       </c>
       <c r="C27" s="15">
-        <v>2.3338000000000001E-2</v>
+        <v>9.2743999999999993E-2</v>
       </c>
       <c r="D27" s="15">
-        <v>1.2701E-2</v>
+        <v>5.3135000000000002E-2</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
       <c r="G27" s="15">
+        <v>0.14055000000000001</v>
+      </c>
+      <c r="H27" s="15">
+        <v>15.3284</v>
+      </c>
+      <c r="I27" s="15">
+        <v>0.21196000000000001</v>
+      </c>
+      <c r="J27" s="15">
+        <v>5.3135000000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="15">
+        <v>9.3892000000000003E-2</v>
+      </c>
+      <c r="B28" s="15">
+        <v>2.5024999999999998E-4</v>
+      </c>
+      <c r="C28" s="15">
+        <v>6.2011999999999998E-2</v>
+      </c>
+      <c r="D28" s="15">
+        <v>3.474E-2</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="15">
+        <v>9.3892000000000003E-2</v>
+      </c>
+      <c r="H28" s="15">
+        <v>23.099299999999999</v>
+      </c>
+      <c r="I28" s="15">
+        <v>0.15285000000000001</v>
+      </c>
+      <c r="J28" s="15">
+        <v>3.474E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="15">
+        <v>7.0490999999999998E-2</v>
+      </c>
+      <c r="B29" s="15">
+        <v>1.5384E-4</v>
+      </c>
+      <c r="C29" s="15">
+        <v>4.6575999999999999E-2</v>
+      </c>
+      <c r="D29" s="15">
+        <v>2.5794999999999998E-2</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="15">
+        <v>7.0490999999999998E-2</v>
+      </c>
+      <c r="H29" s="15">
+        <v>30.856200000000001</v>
+      </c>
+      <c r="I29" s="15">
+        <v>0.12267</v>
+      </c>
+      <c r="J29" s="15">
+        <v>2.5794999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="15">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="H27" s="15">
+      <c r="B30" s="15">
+        <v>4.9327999999999999E-5</v>
+      </c>
+      <c r="C30" s="15">
+        <v>2.3338000000000001E-2</v>
+      </c>
+      <c r="D30" s="15">
+        <v>1.2701E-2</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="15">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="H30" s="15">
         <v>61.853999999999999</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I30" s="15">
         <v>7.2650000000000006E-2</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J30" s="15">
         <v>1.2701E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="15">
+        <v>0.50619999999999998</v>
+      </c>
+      <c r="B35" s="3">
+        <v>90000</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="15">
+        <v>0.27940999999999999</v>
+      </c>
+      <c r="B36" s="3">
+        <v>295000</v>
+      </c>
+      <c r="C36" s="3">
+        <v>6833.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="15">
+        <v>0.14055000000000001</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1170000</v>
+      </c>
+      <c r="C37" s="3">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="15">
+        <v>9.3892000000000003E-2</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2620000</v>
+      </c>
+      <c r="C38" s="3">
+        <v>20167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="15">
+        <v>7.0490999999999998E-2</v>
+      </c>
+      <c r="B39" s="3">
+        <v>4640000</v>
+      </c>
+      <c r="C39" s="3">
+        <v>26833</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="15">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="B40" s="3">
+        <v>18500000</v>
+      </c>
+      <c r="C40" s="3">
+        <v>53500</v>
       </c>
     </row>
   </sheetData>

--- a/error_computation/frictionless_sliding_analyt_8/frictionless_convergencestudy.xlsx
+++ b/error_computation/frictionless_sliding_analyt_8/frictionless_convergencestudy.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="6300" windowHeight="4125" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="6300" windowHeight="4125" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Error norms" sheetId="4" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="5" r:id="rId2"/>
+    <sheet name="Data for plots" sheetId="5" r:id="rId2"/>
+    <sheet name="Analysis" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="54">
   <si>
     <t>Database for example "inp_frictionless_sliding_analyt_8"</t>
   </si>
@@ -160,6 +161,24 @@
   <si>
     <t>penalty</t>
   </si>
+  <si>
+    <t>Sensitivity analysis for the stabilization parameter</t>
+  </si>
+  <si>
+    <t>Displacement error</t>
+  </si>
+  <si>
+    <t>energy error</t>
+  </si>
+  <si>
+    <t>traction error</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>factor * auto</t>
+  </si>
 </sst>
 </file>
 
@@ -226,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -256,6 +275,8 @@
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -441,11 +462,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="67040768"/>
-        <c:axId val="74273920"/>
+        <c:axId val="57624064"/>
+        <c:axId val="57625600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67040768"/>
+        <c:axId val="57624064"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -453,12 +474,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74273920"/>
+        <c:crossAx val="57625600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74273920"/>
+        <c:axId val="57625600"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -467,7 +488,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67040768"/>
+        <c:crossAx val="57624064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -661,11 +682,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79052800"/>
-        <c:axId val="79054336"/>
+        <c:axId val="83184256"/>
+        <c:axId val="83190144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79052800"/>
+        <c:axId val="83184256"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -673,12 +694,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79054336"/>
+        <c:crossAx val="83190144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79054336"/>
+        <c:axId val="83190144"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -687,7 +708,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79052800"/>
+        <c:crossAx val="83184256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -725,7 +746,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -792,11 +812,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79082624"/>
-        <c:axId val="79084160"/>
+        <c:axId val="83210240"/>
+        <c:axId val="83211776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79082624"/>
+        <c:axId val="83210240"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -804,12 +824,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79084160"/>
+        <c:crossAx val="83211776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79084160"/>
+        <c:axId val="83211776"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -818,14 +838,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79082624"/>
+        <c:crossAx val="83210240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1014,11 +1033,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78999552"/>
-        <c:axId val="79001088"/>
+        <c:axId val="102050432"/>
+        <c:axId val="102052224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78999552"/>
+        <c:axId val="102050432"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1026,12 +1045,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79001088"/>
+        <c:crossAx val="102052224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79001088"/>
+        <c:axId val="102052224"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1040,7 +1059,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78999552"/>
+        <c:crossAx val="102050432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1235,11 +1254,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79018624"/>
-        <c:axId val="79114624"/>
+        <c:axId val="102098432"/>
+        <c:axId val="102099968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79018624"/>
+        <c:axId val="102098432"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1247,12 +1266,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79114624"/>
+        <c:crossAx val="102099968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79114624"/>
+        <c:axId val="102099968"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1261,7 +1280,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79018624"/>
+        <c:crossAx val="102098432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1283,9 +1302,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1351,11 +1368,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79135488"/>
-        <c:axId val="79137024"/>
+        <c:axId val="87956864"/>
+        <c:axId val="87970944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79135488"/>
+        <c:axId val="87956864"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1363,12 +1380,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79137024"/>
+        <c:crossAx val="87970944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79137024"/>
+        <c:axId val="87970944"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1377,14 +1394,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79135488"/>
+        <c:crossAx val="87956864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1416,7 +1432,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1573,11 +1588,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79175040"/>
-        <c:axId val="79189120"/>
+        <c:axId val="88004864"/>
+        <c:axId val="88010752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79175040"/>
+        <c:axId val="88004864"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1585,12 +1600,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79189120"/>
+        <c:crossAx val="88010752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79189120"/>
+        <c:axId val="88010752"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1599,14 +1614,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79175040"/>
+        <c:crossAx val="88004864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1794,11 +1808,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79202560"/>
-        <c:axId val="79220736"/>
+        <c:axId val="102147200"/>
+        <c:axId val="102148736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79202560"/>
+        <c:axId val="102147200"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1806,12 +1820,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79220736"/>
+        <c:crossAx val="102148736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79220736"/>
+        <c:axId val="102148736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1820,7 +1834,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79202560"/>
+        <c:crossAx val="102147200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1858,7 +1872,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1925,11 +1938,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79232000"/>
-        <c:axId val="79373056"/>
+        <c:axId val="104339328"/>
+        <c:axId val="104340864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79232000"/>
+        <c:axId val="104339328"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1937,12 +1950,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79373056"/>
+        <c:crossAx val="104340864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79373056"/>
+        <c:axId val="104340864"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1951,14 +1964,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79232000"/>
+        <c:crossAx val="104339328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2147,11 +2159,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79411072"/>
-        <c:axId val="79412608"/>
+        <c:axId val="104383232"/>
+        <c:axId val="104384768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79411072"/>
+        <c:axId val="104383232"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2159,12 +2171,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79412608"/>
+        <c:crossAx val="104384768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79412608"/>
+        <c:axId val="104384768"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2173,7 +2185,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79411072"/>
+        <c:crossAx val="104383232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2368,11 +2380,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79504128"/>
-        <c:axId val="79505664"/>
+        <c:axId val="104398208"/>
+        <c:axId val="82007168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79504128"/>
+        <c:axId val="104398208"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2380,12 +2392,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79505664"/>
+        <c:crossAx val="82007168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79505664"/>
+        <c:axId val="82007168"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2394,7 +2406,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79504128"/>
+        <c:crossAx val="104398208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2588,11 +2600,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="74291840"/>
-        <c:axId val="74305920"/>
+        <c:axId val="70571520"/>
+        <c:axId val="70573056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74291840"/>
+        <c:axId val="70571520"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2600,12 +2612,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74305920"/>
+        <c:crossAx val="70573056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74305920"/>
+        <c:axId val="70573056"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2614,7 +2626,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74291840"/>
+        <c:crossAx val="70571520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2636,9 +2648,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2704,11 +2714,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79550336"/>
-        <c:axId val="79551872"/>
+        <c:axId val="82035456"/>
+        <c:axId val="82036992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79550336"/>
+        <c:axId val="82035456"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2716,12 +2726,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79551872"/>
+        <c:crossAx val="82036992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79551872"/>
+        <c:axId val="82036992"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2730,14 +2740,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79550336"/>
+        <c:crossAx val="82035456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2769,7 +2778,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2926,11 +2934,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79594624"/>
-        <c:axId val="79596160"/>
+        <c:axId val="82128896"/>
+        <c:axId val="82130432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79594624"/>
+        <c:axId val="82128896"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2938,12 +2946,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79596160"/>
+        <c:crossAx val="82130432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79596160"/>
+        <c:axId val="82130432"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2952,14 +2960,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79594624"/>
+        <c:crossAx val="82128896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3147,11 +3154,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79617408"/>
-        <c:axId val="79635584"/>
+        <c:axId val="82163968"/>
+        <c:axId val="82169856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79617408"/>
+        <c:axId val="82163968"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3159,12 +3166,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79635584"/>
+        <c:crossAx val="82169856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79635584"/>
+        <c:axId val="82169856"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3173,7 +3180,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79617408"/>
+        <c:crossAx val="82163968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3195,9 +3202,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3263,11 +3268,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79663872"/>
-        <c:axId val="79665408"/>
+        <c:axId val="82177408"/>
+        <c:axId val="82060416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79663872"/>
+        <c:axId val="82177408"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3275,12 +3280,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79665408"/>
+        <c:crossAx val="82060416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79665408"/>
+        <c:axId val="82060416"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3289,14 +3294,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79663872"/>
+        <c:crossAx val="82177408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3328,7 +3332,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3485,11 +3488,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79682944"/>
-        <c:axId val="79451264"/>
+        <c:axId val="82196736"/>
+        <c:axId val="82198528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79682944"/>
+        <c:axId val="82196736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3497,12 +3500,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79451264"/>
+        <c:crossAx val="82198528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79451264"/>
+        <c:axId val="82198528"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3511,14 +3514,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79682944"/>
+        <c:crossAx val="82196736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3706,11 +3708,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79468416"/>
-        <c:axId val="79469952"/>
+        <c:axId val="82215680"/>
+        <c:axId val="82217216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79468416"/>
+        <c:axId val="82215680"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3718,12 +3720,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79469952"/>
+        <c:crossAx val="82217216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79469952"/>
+        <c:axId val="82217216"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3732,7 +3734,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79468416"/>
+        <c:crossAx val="82215680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3754,9 +3756,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3822,11 +3822,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79830016"/>
-        <c:axId val="79835904"/>
+        <c:axId val="82257792"/>
+        <c:axId val="82259328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79830016"/>
+        <c:axId val="82257792"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3834,12 +3834,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79835904"/>
+        <c:crossAx val="82259328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79835904"/>
+        <c:axId val="82259328"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3848,14 +3848,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79830016"/>
+        <c:crossAx val="82257792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4076,11 +4075,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79869824"/>
-        <c:axId val="79757312"/>
+        <c:axId val="82293504"/>
+        <c:axId val="82295424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79869824"/>
+        <c:axId val="82293504"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4106,16 +4105,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79757312"/>
+        <c:crossAx val="82295424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79757312"/>
+        <c:axId val="82295424"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1.0000000000000004E-2"/>
+          <c:max val="1.0000000000000005E-2"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -4139,7 +4138,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79869824"/>
+        <c:crossAx val="82293504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4367,11 +4366,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79795712"/>
-        <c:axId val="79797632"/>
+        <c:axId val="82342272"/>
+        <c:axId val="82344192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79795712"/>
+        <c:axId val="82342272"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4397,12 +4396,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79797632"/>
+        <c:crossAx val="82344192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79797632"/>
+        <c:axId val="82344192"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4429,7 +4428,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79795712"/>
+        <c:crossAx val="82342272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4657,11 +4656,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79967360"/>
-        <c:axId val="79969280"/>
+        <c:axId val="82587648"/>
+        <c:axId val="82589568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79967360"/>
+        <c:axId val="82587648"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4687,12 +4686,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79969280"/>
+        <c:crossAx val="82589568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79969280"/>
+        <c:axId val="82589568"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4719,7 +4718,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79967360"/>
+        <c:crossAx val="82587648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4758,7 +4757,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4915,11 +4913,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="74208768"/>
-        <c:axId val="74210304"/>
+        <c:axId val="70606848"/>
+        <c:axId val="70608384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74208768"/>
+        <c:axId val="70606848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4927,12 +4925,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74210304"/>
+        <c:crossAx val="70608384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74210304"/>
+        <c:axId val="70608384"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4941,14 +4939,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74208768"/>
+        <c:crossAx val="70606848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -5180,11 +5177,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="103708928"/>
-        <c:axId val="103707392"/>
+        <c:axId val="82448768"/>
+        <c:axId val="82450304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103708928"/>
+        <c:axId val="82448768"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5193,12 +5190,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103707392"/>
+        <c:crossAx val="82450304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103707392"/>
+        <c:axId val="82450304"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5208,7 +5205,649 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103708928"/>
+        <c:crossAx val="82448768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Analysis!$B$5:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.35E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3500000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.35E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1350000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13500000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>135000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1350000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13500000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>135000000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1350000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Analysis!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5.0440999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0440999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0440999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0440999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0440999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0440999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0440000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0432000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0416000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1327000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7722000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9799000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0233999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0303000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0334000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0356999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0396999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0447999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0491000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0500000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0500999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0500999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.0500999999999996E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="105247104"/>
+        <c:axId val="105245312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="105247104"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105245312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="105245312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105247104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>energy</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Analysis!$B$5:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.35E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3500000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.35E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1350000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13500000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>135000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1350000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13500000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>135000000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1350000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Analysis!$D$5:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>9.3720999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3720999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3720999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3720999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3720999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3719999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3713000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3645000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3272999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.6234E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10675999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.2786999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.2743999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.2756000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.2762999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.2769000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.2787999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.2843999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.2902999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.2913999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.2914999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.2914999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.2914999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="105962112"/>
+        <c:axId val="105960576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="105962112"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105960576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="105960576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105962112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Analysis!$B$5:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.35E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3500000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.35E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1350000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13500000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>135000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1350000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13500000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>135000000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1350000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Analysis!$E$5:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.11649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11649</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11649</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11649</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11645</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11608</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11252</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0867000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17621999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25157000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8080999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3135000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.6107999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0838000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5689000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25094</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94787999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4488000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5321</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5419</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.542</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="105968384"/>
+        <c:axId val="105962496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="105968384"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105962496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="105962496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105968384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5403,11 +6042,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78774656"/>
-        <c:axId val="78776192"/>
+        <c:axId val="70642304"/>
+        <c:axId val="70644096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78774656"/>
+        <c:axId val="70642304"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5415,12 +6054,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78776192"/>
+        <c:crossAx val="70644096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78776192"/>
+        <c:axId val="70644096"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5429,7 +6068,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78774656"/>
+        <c:crossAx val="70642304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5533,11 +6172,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78792192"/>
-        <c:axId val="78793728"/>
+        <c:axId val="70676480"/>
+        <c:axId val="70678016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78792192"/>
+        <c:axId val="70676480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5545,12 +6184,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78793728"/>
+        <c:crossAx val="70678016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78793728"/>
+        <c:axId val="70678016"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5559,7 +6198,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78792192"/>
+        <c:crossAx val="70676480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5597,7 +6236,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5664,11 +6302,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78826112"/>
-        <c:axId val="78840192"/>
+        <c:axId val="70702208"/>
+        <c:axId val="70703744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78826112"/>
+        <c:axId val="70702208"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5676,12 +6314,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78840192"/>
+        <c:crossAx val="70703744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78840192"/>
+        <c:axId val="70703744"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5690,14 +6328,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78826112"/>
+        <c:crossAx val="70702208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -5885,11 +6522,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78870016"/>
-        <c:axId val="78871552"/>
+        <c:axId val="79261696"/>
+        <c:axId val="79263232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78870016"/>
+        <c:axId val="79261696"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5897,12 +6534,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78871552"/>
+        <c:crossAx val="79263232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78871552"/>
+        <c:axId val="79263232"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5911,7 +6548,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78870016"/>
+        <c:crossAx val="79261696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6015,11 +6652,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78887552"/>
-        <c:axId val="78905728"/>
+        <c:axId val="79291520"/>
+        <c:axId val="79293056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78887552"/>
+        <c:axId val="79291520"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6027,12 +6664,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78905728"/>
+        <c:crossAx val="79293056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78905728"/>
+        <c:axId val="79293056"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6041,7 +6678,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78887552"/>
+        <c:crossAx val="79291520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6079,7 +6716,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6236,11 +6872,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78943360"/>
-        <c:axId val="78944896"/>
+        <c:axId val="83136512"/>
+        <c:axId val="83138048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78943360"/>
+        <c:axId val="83136512"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6248,12 +6884,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78944896"/>
+        <c:crossAx val="83138048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78944896"/>
+        <c:axId val="83138048"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6262,14 +6898,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78943360"/>
+        <c:crossAx val="83136512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -7186,6 +7821,101 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
@@ -7473,8 +8203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y190"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G145" sqref="G145:I145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10472,7 +11202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+    <sheetView topLeftCell="C5" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -11223,4 +11953,462 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1E-10</v>
+      </c>
+      <c r="B5" s="3">
+        <f>A5*$B$17</f>
+        <v>1.35E-6</v>
+      </c>
+      <c r="C5">
+        <v>5.0440999999999995E-4</v>
+      </c>
+      <c r="D5">
+        <v>9.3720999999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.11649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="B6" s="3">
+        <f>A6*$B$17</f>
+        <v>1.3500000000000001E-5</v>
+      </c>
+      <c r="C6">
+        <v>5.0440999999999995E-4</v>
+      </c>
+      <c r="D6">
+        <v>9.3720999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.11649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1E-8</v>
+      </c>
+      <c r="B7" s="3">
+        <f>A7*$B$17</f>
+        <v>1.35E-4</v>
+      </c>
+      <c r="C7">
+        <v>5.0440999999999995E-4</v>
+      </c>
+      <c r="D7">
+        <v>9.3720999999999999E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.11649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B8" s="3">
+        <f>A8*$B$17</f>
+        <v>1.3499999999999999E-3</v>
+      </c>
+      <c r="C8">
+        <v>5.0440999999999995E-4</v>
+      </c>
+      <c r="D8">
+        <v>9.3720999999999999E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.11649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B9" s="3">
+        <f>A9*$B$17</f>
+        <v>1.35E-2</v>
+      </c>
+      <c r="C9">
+        <v>5.0440999999999995E-4</v>
+      </c>
+      <c r="D9">
+        <v>9.3720999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.11649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B10" s="3">
+        <f>A10*$B$17</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="C10">
+        <v>5.0440999999999995E-4</v>
+      </c>
+      <c r="D10">
+        <v>9.3719999999999998E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.11645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1E-4</v>
+      </c>
+      <c r="B11" s="3">
+        <f>A11*$B$17</f>
+        <v>1.35</v>
+      </c>
+      <c r="C11">
+        <v>5.0440000000000001E-4</v>
+      </c>
+      <c r="D11">
+        <v>9.3713000000000005E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.11608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1E-3</v>
+      </c>
+      <c r="B12" s="3">
+        <f>A12*$B$17</f>
+        <v>13.5</v>
+      </c>
+      <c r="C12">
+        <v>5.0432000000000005E-4</v>
+      </c>
+      <c r="D12">
+        <v>9.3645000000000006E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.11252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>0.01</v>
+      </c>
+      <c r="B13" s="3">
+        <f>A13*$B$17</f>
+        <v>135</v>
+      </c>
+      <c r="C13">
+        <v>5.0416000000000002E-4</v>
+      </c>
+      <c r="D13">
+        <v>9.3272999999999995E-2</v>
+      </c>
+      <c r="E13">
+        <v>9.0867000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>0.1</v>
+      </c>
+      <c r="B14" s="3">
+        <f>A14*$B$17</f>
+        <v>1350</v>
+      </c>
+      <c r="C14">
+        <v>5.1327000000000002E-4</v>
+      </c>
+      <c r="D14">
+        <v>9.6234E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.17621999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>0.25</v>
+      </c>
+      <c r="B15" s="3">
+        <f>A15*$B$17</f>
+        <v>3375</v>
+      </c>
+      <c r="C15">
+        <v>5.7722000000000003E-4</v>
+      </c>
+      <c r="D15">
+        <v>0.10675999999999999</v>
+      </c>
+      <c r="E15">
+        <v>0.25157000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>0.5</v>
+      </c>
+      <c r="B16" s="3">
+        <f>A16*$B$17</f>
+        <v>6750</v>
+      </c>
+      <c r="C16">
+        <v>4.9799000000000002E-4</v>
+      </c>
+      <c r="D16">
+        <v>9.2786999999999994E-2</v>
+      </c>
+      <c r="E16">
+        <v>4.8080999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="17" customFormat="1">
+      <c r="A17" s="17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="18">
+        <v>13500</v>
+      </c>
+      <c r="C17" s="17">
+        <v>5.0233999999999999E-4</v>
+      </c>
+      <c r="D17" s="17">
+        <v>9.2743999999999993E-2</v>
+      </c>
+      <c r="E17" s="17">
+        <v>5.3135000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3">
+        <f>A18*$B$17</f>
+        <v>27000</v>
+      </c>
+      <c r="C18">
+        <v>5.0303000000000001E-4</v>
+      </c>
+      <c r="D18">
+        <v>9.2756000000000005E-2</v>
+      </c>
+      <c r="E18">
+        <v>5.6107999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3">
+        <f>A19*$B$17</f>
+        <v>54000</v>
+      </c>
+      <c r="C19">
+        <v>5.0334000000000002E-4</v>
+      </c>
+      <c r="D19">
+        <v>9.2762999999999998E-2</v>
+      </c>
+      <c r="E19">
+        <v>6.0838000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3">
+        <f>A20*$B$17</f>
+        <v>135000</v>
+      </c>
+      <c r="C20">
+        <v>5.0356999999999995E-4</v>
+      </c>
+      <c r="D20">
+        <v>9.2769000000000004E-2</v>
+      </c>
+      <c r="E20">
+        <v>7.5689000000000006E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21" s="3">
+        <f>A21*$B$17</f>
+        <v>1350000</v>
+      </c>
+      <c r="C21">
+        <v>5.0396999999999996E-4</v>
+      </c>
+      <c r="D21">
+        <v>9.2787999999999995E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.25094</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>1000</v>
+      </c>
+      <c r="B22" s="3">
+        <f>A22*$B$17</f>
+        <v>13500000</v>
+      </c>
+      <c r="C22">
+        <v>5.0447999999999997E-4</v>
+      </c>
+      <c r="D22">
+        <v>9.2843999999999996E-2</v>
+      </c>
+      <c r="E22">
+        <v>0.94787999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>10000</v>
+      </c>
+      <c r="B23" s="3">
+        <f>A23*$B$17</f>
+        <v>135000000</v>
+      </c>
+      <c r="C23">
+        <v>5.0491000000000002E-4</v>
+      </c>
+      <c r="D23">
+        <v>9.2902999999999999E-2</v>
+      </c>
+      <c r="E23">
+        <v>1.4488000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>100000</v>
+      </c>
+      <c r="B24" s="3">
+        <f>A24*$B$17</f>
+        <v>1350000000</v>
+      </c>
+      <c r="C24">
+        <v>5.0500000000000002E-4</v>
+      </c>
+      <c r="D24">
+        <v>9.2913999999999997E-2</v>
+      </c>
+      <c r="E24">
+        <v>1.5321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>1000000</v>
+      </c>
+      <c r="B25" s="3">
+        <f>A25*$B$17</f>
+        <v>13500000000</v>
+      </c>
+      <c r="C25">
+        <v>5.0500999999999996E-4</v>
+      </c>
+      <c r="D25">
+        <v>9.2914999999999998E-2</v>
+      </c>
+      <c r="E25">
+        <v>1.5409999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>10000000</v>
+      </c>
+      <c r="B26" s="3">
+        <f>A26*$B$17</f>
+        <v>135000000000</v>
+      </c>
+      <c r="C26">
+        <v>5.0500999999999996E-4</v>
+      </c>
+      <c r="D26">
+        <v>9.2914999999999998E-2</v>
+      </c>
+      <c r="E26">
+        <v>1.5419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>100000000</v>
+      </c>
+      <c r="B27" s="3">
+        <f>A27*$B$17</f>
+        <v>1350000000000</v>
+      </c>
+      <c r="C27">
+        <v>5.0500999999999996E-4</v>
+      </c>
+      <c r="D27">
+        <v>9.2914999999999998E-2</v>
+      </c>
+      <c r="E27">
+        <v>1.542</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/error_computation/frictionless_sliding_analyt_8/frictionless_convergencestudy.xlsx
+++ b/error_computation/frictionless_sliding_analyt_8/frictionless_convergencestudy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="56">
   <si>
     <t>Database for example "inp_frictionless_sliding_analyt_8"</t>
   </si>
@@ -179,6 +179,12 @@
   <si>
     <t>factor * auto</t>
   </si>
+  <si>
+    <t>inp_frictionless_sliding_analyt_8_81_20.m</t>
+  </si>
+  <si>
+    <t>Sensitivity analysis for the penalty parameter</t>
+  </si>
 </sst>
 </file>
 
@@ -462,11 +468,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="57624064"/>
-        <c:axId val="57625600"/>
+        <c:axId val="113690112"/>
+        <c:axId val="113865088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57624064"/>
+        <c:axId val="113690112"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -474,12 +480,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57625600"/>
+        <c:crossAx val="113865088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57625600"/>
+        <c:axId val="113865088"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -488,7 +494,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57624064"/>
+        <c:crossAx val="113690112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -682,11 +688,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="83184256"/>
-        <c:axId val="83190144"/>
+        <c:axId val="115937280"/>
+        <c:axId val="115938816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83184256"/>
+        <c:axId val="115937280"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -694,12 +700,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83190144"/>
+        <c:crossAx val="115938816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83190144"/>
+        <c:axId val="115938816"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -708,7 +714,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83184256"/>
+        <c:crossAx val="115937280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -812,11 +818,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="83210240"/>
-        <c:axId val="83211776"/>
+        <c:axId val="116196480"/>
+        <c:axId val="116198016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83210240"/>
+        <c:axId val="116196480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -824,12 +830,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83211776"/>
+        <c:crossAx val="116198016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83211776"/>
+        <c:axId val="116198016"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -838,7 +844,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83210240"/>
+        <c:crossAx val="116196480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1033,11 +1039,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="102050432"/>
-        <c:axId val="102052224"/>
+        <c:axId val="116256768"/>
+        <c:axId val="116258304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102050432"/>
+        <c:axId val="116256768"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1045,12 +1051,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102052224"/>
+        <c:crossAx val="116258304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102052224"/>
+        <c:axId val="116258304"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1059,7 +1065,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102050432"/>
+        <c:crossAx val="116256768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1254,11 +1260,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="102098432"/>
-        <c:axId val="102099968"/>
+        <c:axId val="116386432"/>
+        <c:axId val="116605312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102098432"/>
+        <c:axId val="116386432"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1266,12 +1272,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102099968"/>
+        <c:crossAx val="116605312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102099968"/>
+        <c:axId val="116605312"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1280,7 +1286,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102098432"/>
+        <c:crossAx val="116386432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1368,11 +1374,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87956864"/>
-        <c:axId val="87970944"/>
+        <c:axId val="116728576"/>
+        <c:axId val="116730112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87956864"/>
+        <c:axId val="116728576"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1380,12 +1386,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87970944"/>
+        <c:crossAx val="116730112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87970944"/>
+        <c:axId val="116730112"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1394,7 +1400,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87956864"/>
+        <c:crossAx val="116728576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1432,6 +1438,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1588,11 +1595,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88004864"/>
-        <c:axId val="88010752"/>
+        <c:axId val="116776320"/>
+        <c:axId val="116872320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88004864"/>
+        <c:axId val="116776320"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1600,12 +1607,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88010752"/>
+        <c:crossAx val="116872320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88010752"/>
+        <c:axId val="116872320"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1614,13 +1621,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88004864"/>
+        <c:crossAx val="116776320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1808,11 +1816,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="102147200"/>
-        <c:axId val="102148736"/>
+        <c:axId val="116906240"/>
+        <c:axId val="116985856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102147200"/>
+        <c:axId val="116906240"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1820,12 +1828,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102148736"/>
+        <c:crossAx val="116985856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102148736"/>
+        <c:axId val="116985856"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1834,7 +1842,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102147200"/>
+        <c:crossAx val="116906240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1938,11 +1946,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="104339328"/>
-        <c:axId val="104340864"/>
+        <c:axId val="116997120"/>
+        <c:axId val="117007104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104339328"/>
+        <c:axId val="116997120"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1950,12 +1958,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104340864"/>
+        <c:crossAx val="117007104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104340864"/>
+        <c:axId val="117007104"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1964,7 +1972,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104339328"/>
+        <c:crossAx val="116997120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2159,11 +2167,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="104383232"/>
-        <c:axId val="104384768"/>
+        <c:axId val="117020544"/>
+        <c:axId val="117022080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104383232"/>
+        <c:axId val="117020544"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2171,12 +2179,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104384768"/>
+        <c:crossAx val="117022080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104384768"/>
+        <c:axId val="117022080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2185,7 +2193,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104383232"/>
+        <c:crossAx val="117020544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2380,11 +2388,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="104398208"/>
-        <c:axId val="82007168"/>
+        <c:axId val="119493376"/>
+        <c:axId val="119494912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104398208"/>
+        <c:axId val="119493376"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2392,12 +2400,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82007168"/>
+        <c:crossAx val="119494912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82007168"/>
+        <c:axId val="119494912"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2406,7 +2414,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104398208"/>
+        <c:crossAx val="119493376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2600,11 +2608,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="70571520"/>
-        <c:axId val="70573056"/>
+        <c:axId val="112756992"/>
+        <c:axId val="112758784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70571520"/>
+        <c:axId val="112756992"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2612,12 +2620,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70573056"/>
+        <c:crossAx val="112758784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70573056"/>
+        <c:axId val="112758784"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2626,7 +2634,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70571520"/>
+        <c:crossAx val="112756992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2714,11 +2722,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82035456"/>
-        <c:axId val="82036992"/>
+        <c:axId val="119527296"/>
+        <c:axId val="119528832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82035456"/>
+        <c:axId val="119527296"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2726,12 +2734,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82036992"/>
+        <c:crossAx val="119528832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82036992"/>
+        <c:axId val="119528832"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2740,7 +2748,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82035456"/>
+        <c:crossAx val="119527296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2778,6 +2786,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2934,11 +2943,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82128896"/>
-        <c:axId val="82130432"/>
+        <c:axId val="119682176"/>
+        <c:axId val="119683712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82128896"/>
+        <c:axId val="119682176"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2946,12 +2955,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82130432"/>
+        <c:crossAx val="119683712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82130432"/>
+        <c:axId val="119683712"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2960,13 +2969,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82128896"/>
+        <c:crossAx val="119682176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3154,11 +3164,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82163968"/>
-        <c:axId val="82169856"/>
+        <c:axId val="119721344"/>
+        <c:axId val="119538816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82163968"/>
+        <c:axId val="119721344"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3166,12 +3176,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82169856"/>
+        <c:crossAx val="119538816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82169856"/>
+        <c:axId val="119538816"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3180,7 +3190,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82163968"/>
+        <c:crossAx val="119721344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3268,11 +3278,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82177408"/>
-        <c:axId val="82060416"/>
+        <c:axId val="119558912"/>
+        <c:axId val="119560448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82177408"/>
+        <c:axId val="119558912"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3280,12 +3290,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82060416"/>
+        <c:crossAx val="119560448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82060416"/>
+        <c:axId val="119560448"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3294,7 +3304,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82177408"/>
+        <c:crossAx val="119558912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3332,6 +3342,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3488,11 +3499,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82196736"/>
-        <c:axId val="82198528"/>
+        <c:axId val="119577984"/>
+        <c:axId val="119596160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82196736"/>
+        <c:axId val="119577984"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3500,12 +3511,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82198528"/>
+        <c:crossAx val="119596160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82198528"/>
+        <c:axId val="119596160"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3514,13 +3525,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82196736"/>
+        <c:crossAx val="119577984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3708,11 +3720,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82215680"/>
-        <c:axId val="82217216"/>
+        <c:axId val="121141120"/>
+        <c:axId val="121142656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82215680"/>
+        <c:axId val="121141120"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3720,12 +3732,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82217216"/>
+        <c:crossAx val="121142656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82217216"/>
+        <c:axId val="121142656"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3734,7 +3746,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82215680"/>
+        <c:crossAx val="121141120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3822,11 +3834,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82257792"/>
-        <c:axId val="82259328"/>
+        <c:axId val="121150464"/>
+        <c:axId val="121185024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82257792"/>
+        <c:axId val="121150464"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3834,12 +3846,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82259328"/>
+        <c:crossAx val="121185024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82259328"/>
+        <c:axId val="121185024"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3848,7 +3860,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82257792"/>
+        <c:crossAx val="121150464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4075,11 +4087,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82293504"/>
-        <c:axId val="82295424"/>
+        <c:axId val="121202560"/>
+        <c:axId val="121208832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82293504"/>
+        <c:axId val="121202560"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4105,12 +4117,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82295424"/>
+        <c:crossAx val="121208832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82295424"/>
+        <c:axId val="121208832"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4138,7 +4150,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82293504"/>
+        <c:crossAx val="121202560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4366,11 +4378,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82342272"/>
-        <c:axId val="82344192"/>
+        <c:axId val="121247232"/>
+        <c:axId val="121249152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82342272"/>
+        <c:axId val="121247232"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4396,12 +4408,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82344192"/>
+        <c:crossAx val="121249152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82344192"/>
+        <c:axId val="121249152"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4428,7 +4440,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82342272"/>
+        <c:crossAx val="121247232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4656,11 +4668,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82587648"/>
-        <c:axId val="82589568"/>
+        <c:axId val="121291904"/>
+        <c:axId val="121293824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82587648"/>
+        <c:axId val="121291904"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4686,12 +4698,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82589568"/>
+        <c:crossAx val="121293824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82589568"/>
+        <c:axId val="121293824"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4718,7 +4730,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82587648"/>
+        <c:crossAx val="121291904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4913,11 +4925,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="70606848"/>
-        <c:axId val="70608384"/>
+        <c:axId val="112772224"/>
+        <c:axId val="112773760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70606848"/>
+        <c:axId val="112772224"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4925,12 +4937,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70608384"/>
+        <c:crossAx val="112773760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70608384"/>
+        <c:axId val="112773760"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4939,7 +4951,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70606848"/>
+        <c:crossAx val="112772224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5177,11 +5189,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82448768"/>
-        <c:axId val="82450304"/>
+        <c:axId val="121316864"/>
+        <c:axId val="121318400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82448768"/>
+        <c:axId val="121316864"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5190,12 +5202,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82450304"/>
+        <c:crossAx val="121318400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82450304"/>
+        <c:axId val="121318400"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5205,20 +5217,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82448768"/>
+        <c:crossAx val="121316864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5237,10 +5248,10 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Analysis!$B$5:$B$27</c:f>
+              <c:f>Analysis!$B$5:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.35E-6</c:v>
                 </c:pt>
@@ -5272,42 +5283,75 @@
                   <c:v>1350</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>3348</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3361.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3375</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>3388.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3402</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3415.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3429</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3442.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3456</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3469.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3510</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>6750</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="22">
                   <c:v>13500</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="23">
                   <c:v>27000</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="24">
                   <c:v>54000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
                   <c:v>135000</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
+                  <c:v>675000</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>1350000</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="28">
                   <c:v>13500000</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="29">
                   <c:v>135000000</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="30">
                   <c:v>1350000000</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="31">
                   <c:v>13500000000</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="32">
                   <c:v>135000000000</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="33">
                   <c:v>1350000000000</c:v>
                 </c:pt>
               </c:numCache>
@@ -5315,10 +5359,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Analysis!$C$5:$C$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+              <c:f>Analysis!$C$5:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>5.0440999999999995E-4</c:v>
                 </c:pt>
@@ -5350,53 +5394,86 @@
                   <c:v>5.1327000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>5.3633999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5042999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>5.7722000000000003E-4</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>6.3827000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.2677E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0135999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4759999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.4741000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.3148000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6771000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2070999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>4.9799000000000002E-4</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="22">
                   <c:v>5.0233999999999999E-4</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="23">
                   <c:v>5.0303000000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="24">
                   <c:v>5.0334000000000002E-4</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
                   <c:v>5.0356999999999995E-4</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
+                  <c:v>5.0385000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>5.0396999999999996E-4</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="28">
                   <c:v>5.0447999999999997E-4</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="29">
                   <c:v>5.0491000000000002E-4</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="30">
                   <c:v>5.0500000000000002E-4</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="31">
                   <c:v>5.0500999999999996E-4</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="32">
                   <c:v>5.0500999999999996E-4</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="33">
                   <c:v>5.0500999999999996E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="105247104"/>
-        <c:axId val="105245312"/>
+        <c:axId val="121404800"/>
+        <c:axId val="121406592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105247104"/>
+        <c:axId val="121404800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5404,12 +5481,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105245312"/>
+        <c:crossAx val="121406592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105245312"/>
+        <c:axId val="121406592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5417,7 +5494,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105247104"/>
+        <c:crossAx val="121404800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5430,7 +5507,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5455,10 +5532,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Analysis!$B$5:$B$27</c:f>
+              <c:f>Analysis!$B$5:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.35E-6</c:v>
                 </c:pt>
@@ -5490,42 +5567,75 @@
                   <c:v>1350</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>3348</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3361.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3375</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>3388.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3402</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3415.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3429</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3442.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3456</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3469.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3510</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>6750</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="22">
                   <c:v>13500</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="23">
                   <c:v>27000</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="24">
                   <c:v>54000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
                   <c:v>135000</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
+                  <c:v>675000</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>1350000</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="28">
                   <c:v>13500000</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="29">
                   <c:v>135000000</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="30">
                   <c:v>1350000000</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="31">
                   <c:v>13500000000</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="32">
                   <c:v>135000000000</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="33">
                   <c:v>1350000000000</c:v>
                 </c:pt>
               </c:numCache>
@@ -5533,10 +5643,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Analysis!$D$5:$D$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+              <c:f>Analysis!$D$5:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>9.3720999999999999E-2</c:v>
                 </c:pt>
@@ -5568,53 +5678,86 @@
                   <c:v>9.6234E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>9.9083000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10186000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.10675999999999999</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>0.11604</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14052000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.37574999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14371</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1168</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1053</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.6434000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>9.2786999999999994E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="22">
                   <c:v>9.2743999999999993E-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="23">
                   <c:v>9.2756000000000005E-2</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="24">
                   <c:v>9.2762999999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
                   <c:v>9.2769000000000004E-2</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
+                  <c:v>9.2780000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>9.2787999999999995E-2</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="28">
                   <c:v>9.2843999999999996E-2</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="29">
                   <c:v>9.2902999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="30">
                   <c:v>9.2913999999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="31">
                   <c:v>9.2914999999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="32">
                   <c:v>9.2914999999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="33">
                   <c:v>9.2914999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="105962112"/>
-        <c:axId val="105960576"/>
+        <c:axId val="121434496"/>
+        <c:axId val="121436032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105962112"/>
+        <c:axId val="121434496"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5622,12 +5765,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105960576"/>
+        <c:crossAx val="121436032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105960576"/>
+        <c:axId val="121436032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5635,7 +5778,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105962112"/>
+        <c:crossAx val="121434496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5648,7 +5791,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5659,7 +5802,17 @@
   <c:lang val="de-DE"/>
   <c:chart>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5201275067658429E-2"/>
+          <c:y val="5.693597539431642E-2"/>
+          <c:w val="0.74279413329301136"/>
+          <c:h val="0.77649554754873917"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
@@ -5667,10 +5820,10 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Analysis!$B$5:$B$27</c:f>
+              <c:f>Analysis!$B$5:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.35E-6</c:v>
                 </c:pt>
@@ -5702,42 +5855,75 @@
                   <c:v>1350</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>3348</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3361.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3375</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>3388.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3402</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3415.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3429</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3442.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3456</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3469.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3510</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>6750</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="22">
                   <c:v>13500</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="23">
                   <c:v>27000</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="24">
                   <c:v>54000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
                   <c:v>135000</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
+                  <c:v>675000</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>1350000</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="28">
                   <c:v>13500000</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="29">
                   <c:v>135000000</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="30">
                   <c:v>1350000000</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="31">
                   <c:v>13500000000</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="32">
                   <c:v>135000000000</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="33">
                   <c:v>1350000000000</c:v>
                 </c:pt>
               </c:numCache>
@@ -5745,10 +5931,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Analysis!$E$5:$E$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+              <c:f>Analysis!$E$5:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0.11649</c:v>
                 </c:pt>
@@ -5780,53 +5966,86 @@
                   <c:v>0.17621999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.17021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20163</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.25157000000000002</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>0.34190999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51673000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3069</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4247000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.52912000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.31085000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2273</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.13184999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>4.8080999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="22">
                   <c:v>5.3135000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="23">
                   <c:v>5.6107999999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="24">
                   <c:v>6.0838000000000003E-2</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
                   <c:v>7.5689000000000006E-2</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="26">
+                  <c:v>0.15876999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0.25094</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="28">
                   <c:v>0.94787999999999994</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="29">
                   <c:v>1.4488000000000001</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="30">
                   <c:v>1.5321</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="31">
                   <c:v>1.5409999999999999</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="32">
                   <c:v>1.5419</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="33">
                   <c:v>1.542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="105968384"/>
-        <c:axId val="105962496"/>
+        <c:axId val="121464320"/>
+        <c:axId val="121465856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105968384"/>
+        <c:axId val="121464320"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5834,12 +6053,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105962496"/>
+        <c:crossAx val="121465856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105962496"/>
+        <c:axId val="121465856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5847,7 +6066,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105968384"/>
+        <c:crossAx val="121464320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5860,7 +6079,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6042,11 +6261,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="70642304"/>
-        <c:axId val="70644096"/>
+        <c:axId val="113532928"/>
+        <c:axId val="113534464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70642304"/>
+        <c:axId val="113532928"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6054,12 +6273,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70644096"/>
+        <c:crossAx val="113534464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70644096"/>
+        <c:axId val="113534464"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6068,7 +6287,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70642304"/>
+        <c:crossAx val="113532928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6172,11 +6391,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="70676480"/>
-        <c:axId val="70678016"/>
+        <c:axId val="113554560"/>
+        <c:axId val="113556096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70676480"/>
+        <c:axId val="113554560"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6184,12 +6403,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70678016"/>
+        <c:crossAx val="113556096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70678016"/>
+        <c:axId val="113556096"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6198,7 +6417,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70676480"/>
+        <c:crossAx val="113554560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6302,11 +6521,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="70702208"/>
-        <c:axId val="70703744"/>
+        <c:axId val="113674496"/>
+        <c:axId val="113709056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70702208"/>
+        <c:axId val="113674496"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6314,12 +6533,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70703744"/>
+        <c:crossAx val="113709056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70703744"/>
+        <c:axId val="113709056"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6328,7 +6547,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70702208"/>
+        <c:crossAx val="113674496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6522,11 +6741,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79261696"/>
-        <c:axId val="79263232"/>
+        <c:axId val="113804416"/>
+        <c:axId val="113805952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79261696"/>
+        <c:axId val="113804416"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6534,12 +6753,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79263232"/>
+        <c:crossAx val="113805952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79263232"/>
+        <c:axId val="113805952"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6548,7 +6767,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79261696"/>
+        <c:crossAx val="113804416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6652,11 +6871,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79291520"/>
-        <c:axId val="79293056"/>
+        <c:axId val="113977600"/>
+        <c:axId val="114122752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79291520"/>
+        <c:axId val="113977600"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6664,12 +6883,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79293056"/>
+        <c:crossAx val="114122752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79293056"/>
+        <c:axId val="114122752"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6678,7 +6897,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79291520"/>
+        <c:crossAx val="113977600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6872,11 +7091,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="83136512"/>
-        <c:axId val="83138048"/>
+        <c:axId val="115704960"/>
+        <c:axId val="115706496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83136512"/>
+        <c:axId val="115704960"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6884,12 +7103,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83138048"/>
+        <c:crossAx val="115706496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83138048"/>
+        <c:axId val="115706496"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6898,7 +7117,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83136512"/>
+        <c:crossAx val="115704960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7863,8 +8082,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7885,16 +8104,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>256762</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>81997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>733424</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7040</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>81998</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8203,8 +8422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y190"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G145" sqref="G145:I145"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62:I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11957,10 +12176,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11971,12 +12190,23 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="O1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -11992,13 +12222,25 @@
       <c r="E4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1E-10</v>
       </c>
       <c r="B5" s="3">
-        <f>A5*$B$17</f>
+        <f>A5*$B$27</f>
         <v>1.35E-6</v>
       </c>
       <c r="C5">
@@ -12011,12 +12253,12 @@
         <v>0.11649</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1.0000000000000001E-9</v>
       </c>
       <c r="B6" s="3">
-        <f>A6*$B$17</f>
+        <f>A6*$B$27</f>
         <v>1.3500000000000001E-5</v>
       </c>
       <c r="C6">
@@ -12029,12 +12271,12 @@
         <v>0.11649</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1E-8</v>
       </c>
       <c r="B7" s="3">
-        <f>A7*$B$17</f>
+        <f>A7*$B$27</f>
         <v>1.35E-4</v>
       </c>
       <c r="C7">
@@ -12047,12 +12289,12 @@
         <v>0.11649</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="3">
-        <f>A8*$B$17</f>
+        <f>A8*$B$27</f>
         <v>1.3499999999999999E-3</v>
       </c>
       <c r="C8">
@@ -12065,12 +12307,12 @@
         <v>0.11649</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B9" s="3">
-        <f>A9*$B$17</f>
+        <f>A9*$B$27</f>
         <v>1.35E-2</v>
       </c>
       <c r="C9">
@@ -12083,12 +12325,12 @@
         <v>0.11649</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B10" s="3">
-        <f>A10*$B$17</f>
+        <f>A10*$B$27</f>
         <v>0.13500000000000001</v>
       </c>
       <c r="C10">
@@ -12101,12 +12343,12 @@
         <v>0.11645</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1E-4</v>
       </c>
       <c r="B11" s="3">
-        <f>A11*$B$17</f>
+        <f>A11*$B$27</f>
         <v>1.35</v>
       </c>
       <c r="C11">
@@ -12119,12 +12361,12 @@
         <v>0.11608</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1E-3</v>
       </c>
       <c r="B12" s="3">
-        <f>A12*$B$17</f>
+        <f>A12*$B$27</f>
         <v>13.5</v>
       </c>
       <c r="C12">
@@ -12137,12 +12379,12 @@
         <v>0.11252</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>0.01</v>
       </c>
       <c r="B13" s="3">
-        <f>A13*$B$17</f>
+        <f>A13*$B$27</f>
         <v>135</v>
       </c>
       <c r="C13">
@@ -12155,12 +12397,12 @@
         <v>9.0867000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>0.1</v>
       </c>
       <c r="B14" s="3">
-        <f>A14*$B$17</f>
+        <f>A14*$B$27</f>
         <v>1350</v>
       </c>
       <c r="C14">
@@ -12173,236 +12415,519 @@
         <v>0.17621999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:18">
       <c r="A15">
+        <v>0.248</v>
+      </c>
+      <c r="B15" s="3">
+        <f>A15*$B$27</f>
+        <v>3348</v>
+      </c>
+      <c r="C15">
+        <v>5.3633999999999995E-4</v>
+      </c>
+      <c r="D15">
+        <v>9.9083000000000004E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.17021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>0.249</v>
+      </c>
+      <c r="B16" s="3">
+        <f>A16*$B$27</f>
+        <v>3361.5</v>
+      </c>
+      <c r="C16">
+        <v>5.5042999999999997E-4</v>
+      </c>
+      <c r="D16">
+        <v>0.10186000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.20163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
         <v>0.25</v>
       </c>
-      <c r="B15" s="3">
-        <f>A15*$B$17</f>
+      <c r="B17" s="3">
+        <f>A17*$B$27</f>
         <v>3375</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>5.7722000000000003E-4</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>0.10675999999999999</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <v>0.25157000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>0.251</v>
+      </c>
+      <c r="B18" s="3">
+        <f>A18*$B$27</f>
+        <v>3388.5</v>
+      </c>
+      <c r="C18">
+        <v>6.3827000000000003E-4</v>
+      </c>
+      <c r="D18">
+        <v>0.11604</v>
+      </c>
+      <c r="E18">
+        <v>0.34190999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>0.252</v>
+      </c>
+      <c r="B19" s="3">
+        <f>A19*$B$27</f>
+        <v>3402</v>
+      </c>
+      <c r="C19">
+        <v>8.2677E-4</v>
+      </c>
+      <c r="D19">
+        <v>0.14052000000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.51673000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>0.253</v>
+      </c>
+      <c r="B20" s="3">
+        <f>A20*$B$27</f>
+        <v>3415.5</v>
+      </c>
+      <c r="C20">
+        <v>2.0135999999999999E-3</v>
+      </c>
+      <c r="D20">
+        <v>0.3014</v>
+      </c>
+      <c r="E20">
+        <v>1.3069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>0.254</v>
+      </c>
+      <c r="B21" s="3">
+        <f>A21*$B$27</f>
+        <v>3429</v>
+      </c>
+      <c r="C21">
+        <v>2.4759999999999999E-3</v>
+      </c>
+      <c r="D21">
+        <v>0.37574999999999997</v>
+      </c>
+      <c r="E21">
+        <v>1.4247000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>0.255</v>
+      </c>
+      <c r="B22" s="3">
+        <f>A22*$B$27</f>
+        <v>3442.5</v>
+      </c>
+      <c r="C22">
+        <v>8.4741000000000005E-4</v>
+      </c>
+      <c r="D22">
+        <v>0.14371</v>
+      </c>
+      <c r="E22">
+        <v>0.52912000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="B23" s="3">
+        <f>A23*$B$27</f>
+        <v>3456</v>
+      </c>
+      <c r="C23">
+        <v>6.3148000000000002E-4</v>
+      </c>
+      <c r="D23">
+        <v>0.1168</v>
+      </c>
+      <c r="E23">
+        <v>0.31085000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="B24" s="3">
+        <f>A24*$B$27</f>
+        <v>3469.5</v>
+      </c>
+      <c r="C24">
+        <v>5.6771000000000002E-4</v>
+      </c>
+      <c r="D24">
+        <v>0.1053</v>
+      </c>
+      <c r="E24">
+        <v>0.2273</v>
+      </c>
+      <c r="O24" s="3">
+        <v>117</v>
+      </c>
+      <c r="P24">
+        <v>0.30330000000000001</v>
+      </c>
+      <c r="Q24">
+        <v>1.0784</v>
+      </c>
+      <c r="R24">
+        <v>0.35315000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>0.26</v>
+      </c>
+      <c r="B25" s="3">
+        <f>A25*$B$27</f>
+        <v>3510</v>
+      </c>
+      <c r="C25">
+        <v>5.2070999999999997E-4</v>
+      </c>
+      <c r="D25">
+        <v>9.6434000000000006E-2</v>
+      </c>
+      <c r="E25">
+        <v>0.13184999999999999</v>
+      </c>
+      <c r="O25" s="3">
+        <v>11700</v>
+      </c>
+      <c r="P25">
+        <v>4.9160999999999996E-3</v>
+      </c>
+      <c r="Q25">
+        <v>9.3552999999999997E-2</v>
+      </c>
+      <c r="R25">
+        <v>3.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
         <v>0.5</v>
       </c>
-      <c r="B16" s="3">
-        <f>A16*$B$17</f>
+      <c r="B26" s="3">
+        <f>A26*$B$27</f>
         <v>6750</v>
       </c>
-      <c r="C16">
+      <c r="C26">
         <v>4.9799000000000002E-4</v>
       </c>
-      <c r="D16">
+      <c r="D26">
         <v>9.2786999999999994E-2</v>
       </c>
-      <c r="E16">
+      <c r="E26">
         <v>4.8080999999999999E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="17" customFormat="1">
-      <c r="A17" s="17">
+      <c r="O26" s="3">
+        <v>117000</v>
+      </c>
+      <c r="P26">
+        <v>6.4559999999999997E-4</v>
+      </c>
+      <c r="Q26">
+        <v>9.2716999999999994E-2</v>
+      </c>
+      <c r="R26">
+        <v>5.3388999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="17" customFormat="1">
+      <c r="A27" s="17">
         <v>1</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B27" s="18">
         <v>13500</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C27" s="17">
         <v>5.0233999999999999E-4</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D27" s="17">
         <v>9.2743999999999993E-2</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E27" s="17">
         <v>5.3135000000000002E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="O27" s="18">
+        <v>1170000</v>
+      </c>
+      <c r="P27" s="17">
+        <v>4.9487999999999995E-4</v>
+      </c>
+      <c r="Q27" s="17">
+        <v>9.2779E-2</v>
+      </c>
+      <c r="R27" s="17">
+        <v>0.21196000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
         <v>2</v>
       </c>
-      <c r="B18" s="3">
-        <f>A18*$B$17</f>
+      <c r="B28" s="3">
+        <f t="shared" ref="B28:B38" si="0">A28*$B$27</f>
         <v>27000</v>
       </c>
-      <c r="C18">
+      <c r="C28">
         <v>5.0303000000000001E-4</v>
       </c>
-      <c r="D18">
+      <c r="D28">
         <v>9.2756000000000005E-2</v>
       </c>
-      <c r="E18">
+      <c r="E28">
         <v>5.6107999999999998E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
+      <c r="O28" s="3">
+        <v>11700000</v>
+      </c>
+      <c r="P28">
+        <v>5.0317999999999999E-4</v>
+      </c>
+      <c r="Q28">
+        <v>9.2838000000000004E-2</v>
+      </c>
+      <c r="R28">
+        <v>0.87749999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
         <v>4</v>
       </c>
-      <c r="B19" s="3">
-        <f>A19*$B$17</f>
+      <c r="B29" s="3">
+        <f t="shared" si="0"/>
         <v>54000</v>
       </c>
-      <c r="C19">
+      <c r="C29">
         <v>5.0334000000000002E-4</v>
       </c>
-      <c r="D19">
+      <c r="D29">
         <v>9.2762999999999998E-2</v>
       </c>
-      <c r="E19">
+      <c r="E29">
         <v>6.0838000000000003E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="O29" s="3">
+        <v>117000000</v>
+      </c>
+      <c r="P29">
+        <v>5.0476000000000004E-4</v>
+      </c>
+      <c r="Q29">
+        <v>9.2900999999999997E-2</v>
+      </c>
+      <c r="R29">
+        <v>1.4174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
         <v>10</v>
       </c>
-      <c r="B20" s="3">
-        <f>A20*$B$17</f>
+      <c r="B30" s="3">
+        <f t="shared" si="0"/>
         <v>135000</v>
       </c>
-      <c r="C20">
+      <c r="C30">
         <v>5.0356999999999995E-4</v>
       </c>
-      <c r="D20">
+      <c r="D30">
         <v>9.2769000000000004E-2</v>
       </c>
-      <c r="E20">
+      <c r="E30">
         <v>7.5689000000000006E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
+      <c r="O30" s="3">
+        <v>1170000000</v>
+      </c>
+      <c r="P30">
+        <v>5.0498000000000003E-4</v>
+      </c>
+      <c r="Q30">
+        <v>9.2913999999999997E-2</v>
+      </c>
+      <c r="R30">
+        <v>1.5123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>50</v>
+      </c>
+      <c r="B31" s="3">
+        <f t="shared" si="0"/>
+        <v>675000</v>
+      </c>
+      <c r="C31">
+        <v>5.0385000000000002E-4</v>
+      </c>
+      <c r="D31">
+        <v>9.2780000000000001E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.15876999999999999</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
         <v>100</v>
       </c>
-      <c r="B21" s="3">
-        <f>A21*$B$17</f>
+      <c r="B32" s="3">
+        <f t="shared" si="0"/>
         <v>1350000</v>
       </c>
-      <c r="C21">
+      <c r="C32">
         <v>5.0396999999999996E-4</v>
       </c>
-      <c r="D21">
+      <c r="D32">
         <v>9.2787999999999995E-2</v>
       </c>
-      <c r="E21">
+      <c r="E32">
         <v>0.25094</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
+    <row r="33" spans="1:5">
+      <c r="A33">
         <v>1000</v>
       </c>
-      <c r="B22" s="3">
-        <f>A22*$B$17</f>
+      <c r="B33" s="3">
+        <f t="shared" si="0"/>
         <v>13500000</v>
       </c>
-      <c r="C22">
+      <c r="C33">
         <v>5.0447999999999997E-4</v>
       </c>
-      <c r="D22">
+      <c r="D33">
         <v>9.2843999999999996E-2</v>
       </c>
-      <c r="E22">
+      <c r="E33">
         <v>0.94787999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
+    <row r="34" spans="1:5">
+      <c r="A34">
         <v>10000</v>
       </c>
-      <c r="B23" s="3">
-        <f>A23*$B$17</f>
+      <c r="B34" s="3">
+        <f t="shared" si="0"/>
         <v>135000000</v>
       </c>
-      <c r="C23">
+      <c r="C34">
         <v>5.0491000000000002E-4</v>
       </c>
-      <c r="D23">
+      <c r="D34">
         <v>9.2902999999999999E-2</v>
       </c>
-      <c r="E23">
+      <c r="E34">
         <v>1.4488000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
+    <row r="35" spans="1:5">
+      <c r="A35">
         <v>100000</v>
       </c>
-      <c r="B24" s="3">
-        <f>A24*$B$17</f>
+      <c r="B35" s="3">
+        <f t="shared" si="0"/>
         <v>1350000000</v>
       </c>
-      <c r="C24">
+      <c r="C35">
         <v>5.0500000000000002E-4</v>
       </c>
-      <c r="D24">
+      <c r="D35">
         <v>9.2913999999999997E-2</v>
       </c>
-      <c r="E24">
+      <c r="E35">
         <v>1.5321</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
+    <row r="36" spans="1:5">
+      <c r="A36">
         <v>1000000</v>
       </c>
-      <c r="B25" s="3">
-        <f>A25*$B$17</f>
+      <c r="B36" s="3">
+        <f t="shared" si="0"/>
         <v>13500000000</v>
       </c>
-      <c r="C25">
+      <c r="C36">
         <v>5.0500999999999996E-4</v>
       </c>
-      <c r="D25">
+      <c r="D36">
         <v>9.2914999999999998E-2</v>
       </c>
-      <c r="E25">
+      <c r="E36">
         <v>1.5409999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
+    <row r="37" spans="1:5">
+      <c r="A37">
         <v>10000000</v>
       </c>
-      <c r="B26" s="3">
-        <f>A26*$B$17</f>
+      <c r="B37" s="3">
+        <f t="shared" si="0"/>
         <v>135000000000</v>
       </c>
-      <c r="C26">
+      <c r="C37">
         <v>5.0500999999999996E-4</v>
       </c>
-      <c r="D26">
+      <c r="D37">
         <v>9.2914999999999998E-2</v>
       </c>
-      <c r="E26">
+      <c r="E37">
         <v>1.5419</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
+    <row r="38" spans="1:5">
+      <c r="A38">
         <v>100000000</v>
       </c>
-      <c r="B27" s="3">
-        <f>A27*$B$17</f>
+      <c r="B38" s="3">
+        <f t="shared" si="0"/>
         <v>1350000000000</v>
       </c>
-      <c r="C27">
+      <c r="C38">
         <v>5.0500999999999996E-4</v>
       </c>
-      <c r="D27">
+      <c r="D38">
         <v>9.2914999999999998E-2</v>
       </c>
-      <c r="E27">
+      <c r="E38">
         <v>1.542</v>
       </c>
     </row>
